--- a/Hi Dev Case Database.xlsx
+++ b/Hi Dev Case Database.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/inaki/Documents/Personal/HV_ventures/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA9A84CB-8FBF-224D-A087-298B51C17756}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F37A4B5E-EBFE-A846-80E8-42B3B9268336}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="740" yWindow="1000" windowWidth="27700" windowHeight="14740" xr2:uid="{9C446B82-F47D-0C4B-887A-1C86FFE5F4BE}"/>
   </bookViews>
@@ -158,34 +158,34 @@
     <t xml:space="preserve"> High </t>
   </si>
   <si>
-    <t xml:space="preserve"> Product</t>
+    <t>Product</t>
   </si>
   <si>
-    <t xml:space="preserve"> Discount Band</t>
+    <t>Discount Band</t>
   </si>
   <si>
-    <t xml:space="preserve"> Manufacturing Price</t>
+    <t>Manufacturing Price</t>
   </si>
   <si>
-    <t xml:space="preserve"> Sale Price</t>
+    <t>Sale Price</t>
   </si>
   <si>
-    <t xml:space="preserve"> Gross Sales</t>
+    <t>Gross Sales</t>
   </si>
   <si>
-    <t xml:space="preserve"> Discounts</t>
+    <t>Discounts</t>
   </si>
   <si>
-    <t xml:space="preserve">  Sales</t>
+    <t xml:space="preserve"> Sales</t>
   </si>
   <si>
-    <t xml:space="preserve"> COGS</t>
+    <t>COGS</t>
   </si>
   <si>
-    <t xml:space="preserve"> Profit</t>
+    <t>Profit</t>
   </si>
   <si>
-    <t xml:space="preserve"> Month Name</t>
+    <t>Month Name</t>
   </si>
 </sst>
 </file>
@@ -727,7 +727,7 @@
   <dimension ref="A1:Q701"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
-      <selection activeCell="P1" sqref="P1"/>
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
@@ -844,7 +844,7 @@
       </c>
       <c r="P2" s="18">
         <f ca="1">RANDBETWEEN(2012,2024)</f>
-        <v>2024</v>
+        <v>2014</v>
       </c>
       <c r="Q2" s="2"/>
     </row>
@@ -896,7 +896,7 @@
       </c>
       <c r="P3" s="18">
         <f t="shared" ref="P3:P66" ca="1" si="0">RANDBETWEEN(2012,2024)</f>
-        <v>2020</v>
+        <v>2024</v>
       </c>
       <c r="Q3" s="2"/>
     </row>
@@ -948,7 +948,7 @@
       </c>
       <c r="P4" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="Q4" s="2"/>
     </row>
@@ -1000,7 +1000,7 @@
       </c>
       <c r="P5" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>2014</v>
+        <v>2017</v>
       </c>
       <c r="Q5" s="2"/>
     </row>
@@ -1052,7 +1052,7 @@
       </c>
       <c r="P6" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="Q6" s="2"/>
     </row>
@@ -1104,7 +1104,7 @@
       </c>
       <c r="P7" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="Q7" s="2"/>
     </row>
@@ -1156,7 +1156,7 @@
       </c>
       <c r="P8" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>2012</v>
+        <v>2020</v>
       </c>
       <c r="Q8" s="2"/>
     </row>
@@ -1260,7 +1260,7 @@
       </c>
       <c r="P10" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>2014</v>
+        <v>2019</v>
       </c>
       <c r="Q10" s="2"/>
     </row>
@@ -1312,7 +1312,7 @@
       </c>
       <c r="P11" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>2014</v>
+        <v>2018</v>
       </c>
       <c r="Q11" s="2"/>
     </row>
@@ -1364,7 +1364,7 @@
       </c>
       <c r="P12" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="Q12" s="2"/>
     </row>
@@ -1416,7 +1416,7 @@
       </c>
       <c r="P13" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>2021</v>
+        <v>2024</v>
       </c>
       <c r="Q13" s="2"/>
     </row>
@@ -1468,7 +1468,7 @@
       </c>
       <c r="P14" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>2012</v>
+        <v>2022</v>
       </c>
       <c r="Q14" s="2"/>
     </row>
@@ -1520,7 +1520,7 @@
       </c>
       <c r="P15" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>2015</v>
+        <v>2024</v>
       </c>
       <c r="Q15" s="2"/>
     </row>
@@ -1572,7 +1572,7 @@
       </c>
       <c r="P16" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="Q16" s="2"/>
     </row>
@@ -1624,7 +1624,7 @@
       </c>
       <c r="P17" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>2012</v>
+        <v>2022</v>
       </c>
       <c r="Q17" s="2"/>
     </row>
@@ -1676,7 +1676,7 @@
       </c>
       <c r="P18" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>2017</v>
+        <v>2022</v>
       </c>
       <c r="Q18" s="2"/>
     </row>
@@ -1728,7 +1728,7 @@
       </c>
       <c r="P19" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>2014</v>
+        <v>2021</v>
       </c>
       <c r="Q19" s="2"/>
     </row>
@@ -1832,7 +1832,7 @@
       </c>
       <c r="P21" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>2023</v>
+        <v>2018</v>
       </c>
       <c r="Q21" s="2"/>
     </row>
@@ -1884,7 +1884,7 @@
       </c>
       <c r="P22" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="Q22" s="2"/>
     </row>
@@ -1936,7 +1936,7 @@
       </c>
       <c r="P23" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>2013</v>
+        <v>2018</v>
       </c>
       <c r="Q23" s="2"/>
     </row>
@@ -1988,7 +1988,7 @@
       </c>
       <c r="P24" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>2019</v>
+        <v>2022</v>
       </c>
       <c r="Q24" s="2"/>
     </row>
@@ -2040,7 +2040,7 @@
       </c>
       <c r="P25" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>2020</v>
+        <v>2012</v>
       </c>
       <c r="Q25" s="2"/>
     </row>
@@ -2092,7 +2092,7 @@
       </c>
       <c r="P26" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>2013</v>
+        <v>2021</v>
       </c>
       <c r="Q26" s="2"/>
     </row>
@@ -2144,7 +2144,7 @@
       </c>
       <c r="P27" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>2022</v>
+        <v>2024</v>
       </c>
       <c r="Q27" s="2"/>
     </row>
@@ -2196,7 +2196,7 @@
       </c>
       <c r="P28" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>2024</v>
+        <v>2022</v>
       </c>
       <c r="Q28" s="2"/>
     </row>
@@ -2248,7 +2248,7 @@
       </c>
       <c r="P29" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>2020</v>
+        <v>2012</v>
       </c>
       <c r="Q29" s="2"/>
     </row>
@@ -2300,7 +2300,7 @@
       </c>
       <c r="P30" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>2016</v>
+        <v>2019</v>
       </c>
       <c r="Q30" s="2"/>
     </row>
@@ -2352,7 +2352,7 @@
       </c>
       <c r="P31" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>2018</v>
+        <v>2013</v>
       </c>
       <c r="Q31" s="2"/>
     </row>
@@ -2404,7 +2404,7 @@
       </c>
       <c r="P32" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>2019</v>
+        <v>2013</v>
       </c>
       <c r="Q32" s="2"/>
     </row>
@@ -2456,7 +2456,7 @@
       </c>
       <c r="P33" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>2023</v>
+        <v>2016</v>
       </c>
       <c r="Q33" s="2"/>
     </row>
@@ -2508,7 +2508,7 @@
       </c>
       <c r="P34" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="Q34" s="2"/>
     </row>
@@ -2560,7 +2560,7 @@
       </c>
       <c r="P35" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="Q35" s="2"/>
     </row>
@@ -2612,7 +2612,7 @@
       </c>
       <c r="P36" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>2021</v>
+        <v>2017</v>
       </c>
       <c r="Q36" s="2"/>
     </row>
@@ -2664,7 +2664,7 @@
       </c>
       <c r="P37" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>2018</v>
+        <v>2015</v>
       </c>
       <c r="Q37" s="2"/>
     </row>
@@ -2716,7 +2716,7 @@
       </c>
       <c r="P38" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>2023</v>
+        <v>2016</v>
       </c>
       <c r="Q38" s="2"/>
     </row>
@@ -2768,7 +2768,7 @@
       </c>
       <c r="P39" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>2018</v>
+        <v>2024</v>
       </c>
       <c r="Q39" s="2"/>
     </row>
@@ -2820,7 +2820,7 @@
       </c>
       <c r="P40" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="Q40" s="2"/>
     </row>
@@ -2872,7 +2872,7 @@
       </c>
       <c r="P41" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>2015</v>
+        <v>2023</v>
       </c>
       <c r="Q41" s="2"/>
     </row>
@@ -2924,7 +2924,7 @@
       </c>
       <c r="P42" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="Q42" s="2"/>
     </row>
@@ -2976,7 +2976,7 @@
       </c>
       <c r="P43" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>2017</v>
+        <v>2021</v>
       </c>
       <c r="Q43" s="2"/>
     </row>
@@ -3028,7 +3028,7 @@
       </c>
       <c r="P44" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="Q44" s="2"/>
     </row>
@@ -3080,7 +3080,7 @@
       </c>
       <c r="P45" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="Q45" s="2"/>
     </row>
@@ -3132,7 +3132,7 @@
       </c>
       <c r="P46" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>2019</v>
+        <v>2013</v>
       </c>
       <c r="Q46" s="2"/>
     </row>
@@ -3184,7 +3184,7 @@
       </c>
       <c r="P47" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>2024</v>
+        <v>2017</v>
       </c>
       <c r="Q47" s="2"/>
     </row>
@@ -3236,7 +3236,7 @@
       </c>
       <c r="P48" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="Q48" s="2"/>
     </row>
@@ -3288,7 +3288,7 @@
       </c>
       <c r="P49" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>2015</v>
+        <v>2022</v>
       </c>
       <c r="Q49" s="2"/>
     </row>
@@ -3340,7 +3340,7 @@
       </c>
       <c r="P50" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>2014</v>
+        <v>2021</v>
       </c>
       <c r="Q50" s="2"/>
     </row>
@@ -3392,7 +3392,7 @@
       </c>
       <c r="P51" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>2013</v>
+        <v>2017</v>
       </c>
       <c r="Q51" s="2"/>
     </row>
@@ -3496,7 +3496,7 @@
       </c>
       <c r="P53" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>2021</v>
+        <v>2024</v>
       </c>
       <c r="Q53" s="2"/>
     </row>
@@ -3548,7 +3548,7 @@
       </c>
       <c r="P54" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="Q54" s="2"/>
     </row>
@@ -3600,7 +3600,7 @@
       </c>
       <c r="P55" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>2016</v>
+        <v>2022</v>
       </c>
       <c r="Q55" s="2"/>
     </row>
@@ -3652,7 +3652,7 @@
       </c>
       <c r="P56" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>2016</v>
+        <v>2013</v>
       </c>
       <c r="Q56" s="2"/>
     </row>
@@ -3756,7 +3756,7 @@
       </c>
       <c r="P58" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>2021</v>
+        <v>2012</v>
       </c>
       <c r="Q58" s="2"/>
     </row>
@@ -3808,7 +3808,7 @@
       </c>
       <c r="P59" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>2019</v>
+        <v>2015</v>
       </c>
       <c r="Q59" s="2"/>
     </row>
@@ -3860,7 +3860,7 @@
       </c>
       <c r="P60" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>2024</v>
+        <v>2021</v>
       </c>
       <c r="Q60" s="2"/>
     </row>
@@ -3912,7 +3912,7 @@
       </c>
       <c r="P61" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="Q61" s="2"/>
     </row>
@@ -3964,7 +3964,7 @@
       </c>
       <c r="P62" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>2019</v>
+        <v>2013</v>
       </c>
       <c r="Q62" s="2"/>
     </row>
@@ -4016,7 +4016,7 @@
       </c>
       <c r="P63" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>2017</v>
+        <v>2014</v>
       </c>
       <c r="Q63" s="2"/>
     </row>
@@ -4068,7 +4068,7 @@
       </c>
       <c r="P64" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>2015</v>
+        <v>2012</v>
       </c>
       <c r="Q64" s="2"/>
     </row>
@@ -4172,7 +4172,7 @@
       </c>
       <c r="P66" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="Q66" s="2"/>
     </row>
@@ -4224,7 +4224,7 @@
       </c>
       <c r="P67" s="18">
         <f t="shared" ref="P67:P130" ca="1" si="1">RANDBETWEEN(2012,2024)</f>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="Q67" s="2"/>
     </row>
@@ -4276,7 +4276,7 @@
       </c>
       <c r="P68" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>2017</v>
+        <v>2020</v>
       </c>
       <c r="Q68" s="2"/>
     </row>
@@ -4328,7 +4328,7 @@
       </c>
       <c r="P69" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>2021</v>
+        <v>2013</v>
       </c>
       <c r="Q69" s="2"/>
     </row>
@@ -4380,7 +4380,7 @@
       </c>
       <c r="P70" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>2024</v>
+        <v>2018</v>
       </c>
       <c r="Q70" s="2"/>
     </row>
@@ -4432,7 +4432,7 @@
       </c>
       <c r="P71" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>2016</v>
+        <v>2023</v>
       </c>
       <c r="Q71" s="2"/>
     </row>
@@ -4484,7 +4484,7 @@
       </c>
       <c r="P72" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="Q72" s="2"/>
     </row>
@@ -4536,7 +4536,7 @@
       </c>
       <c r="P73" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>2021</v>
+        <v>2012</v>
       </c>
       <c r="Q73" s="2"/>
     </row>
@@ -4588,7 +4588,7 @@
       </c>
       <c r="P74" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>2023</v>
+        <v>2017</v>
       </c>
       <c r="Q74" s="2"/>
     </row>
@@ -4640,7 +4640,7 @@
       </c>
       <c r="P75" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="Q75" s="2"/>
     </row>
@@ -4692,7 +4692,7 @@
       </c>
       <c r="P76" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>2014</v>
+        <v>2023</v>
       </c>
       <c r="Q76" s="2"/>
     </row>
@@ -4744,7 +4744,7 @@
       </c>
       <c r="P77" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>2021</v>
+        <v>2018</v>
       </c>
       <c r="Q77" s="2"/>
     </row>
@@ -4796,7 +4796,7 @@
       </c>
       <c r="P78" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>2024</v>
+        <v>2016</v>
       </c>
       <c r="Q78" s="2"/>
     </row>
@@ -4848,7 +4848,7 @@
       </c>
       <c r="P79" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>2015</v>
+        <v>2012</v>
       </c>
       <c r="Q79" s="2"/>
     </row>
@@ -4900,7 +4900,7 @@
       </c>
       <c r="P80" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="Q80" s="2"/>
     </row>
@@ -4952,7 +4952,7 @@
       </c>
       <c r="P81" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>2022</v>
+        <v>2015</v>
       </c>
       <c r="Q81" s="2"/>
     </row>
@@ -5004,7 +5004,7 @@
       </c>
       <c r="P82" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="Q82" s="2"/>
     </row>
@@ -5056,7 +5056,7 @@
       </c>
       <c r="P83" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>2022</v>
+        <v>2020</v>
       </c>
       <c r="Q83" s="2"/>
     </row>
@@ -5108,7 +5108,7 @@
       </c>
       <c r="P84" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="Q84" s="2"/>
     </row>
@@ -5160,7 +5160,7 @@
       </c>
       <c r="P85" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>2014</v>
+        <v>2016</v>
       </c>
       <c r="Q85" s="2"/>
     </row>
@@ -5212,7 +5212,7 @@
       </c>
       <c r="P86" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>2023</v>
+        <v>2015</v>
       </c>
       <c r="Q86" s="2"/>
     </row>
@@ -5264,7 +5264,7 @@
       </c>
       <c r="P87" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="Q87" s="2"/>
     </row>
@@ -5316,7 +5316,7 @@
       </c>
       <c r="P88" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>2024</v>
+        <v>2016</v>
       </c>
       <c r="Q88" s="2"/>
     </row>
@@ -5368,7 +5368,7 @@
       </c>
       <c r="P89" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>2014</v>
+        <v>2019</v>
       </c>
       <c r="Q89" s="2"/>
     </row>
@@ -5420,7 +5420,7 @@
       </c>
       <c r="P90" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>2020</v>
+        <v>2012</v>
       </c>
       <c r="Q90" s="2"/>
     </row>
@@ -5472,7 +5472,7 @@
       </c>
       <c r="P91" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="Q91" s="2"/>
     </row>
@@ -5524,7 +5524,7 @@
       </c>
       <c r="P92" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="Q92" s="2"/>
     </row>
@@ -5576,7 +5576,7 @@
       </c>
       <c r="P93" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>2012</v>
+        <v>2018</v>
       </c>
       <c r="Q93" s="2"/>
     </row>
@@ -5628,7 +5628,7 @@
       </c>
       <c r="P94" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>2019</v>
+        <v>2012</v>
       </c>
       <c r="Q94" s="2"/>
     </row>
@@ -5732,7 +5732,7 @@
       </c>
       <c r="P96" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>2014</v>
+        <v>2021</v>
       </c>
       <c r="Q96" s="2"/>
     </row>
@@ -5784,7 +5784,7 @@
       </c>
       <c r="P97" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>2020</v>
+        <v>2016</v>
       </c>
       <c r="Q97" s="2"/>
     </row>
@@ -5836,7 +5836,7 @@
       </c>
       <c r="P98" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>2020</v>
+        <v>2014</v>
       </c>
       <c r="Q98" s="2"/>
     </row>
@@ -5888,7 +5888,7 @@
       </c>
       <c r="P99" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>2021</v>
+        <v>2014</v>
       </c>
       <c r="Q99" s="2"/>
     </row>
@@ -5940,7 +5940,7 @@
       </c>
       <c r="P100" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="Q100" s="2"/>
     </row>
@@ -5992,7 +5992,7 @@
       </c>
       <c r="P101" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="Q101" s="2"/>
     </row>
@@ -6044,7 +6044,7 @@
       </c>
       <c r="P102" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>2016</v>
+        <v>2012</v>
       </c>
       <c r="Q102" s="2"/>
     </row>
@@ -6096,7 +6096,7 @@
       </c>
       <c r="P103" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>2018</v>
+        <v>2023</v>
       </c>
       <c r="Q103" s="2"/>
     </row>
@@ -6148,7 +6148,7 @@
       </c>
       <c r="P104" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>2014</v>
+        <v>2017</v>
       </c>
       <c r="Q104" s="2"/>
     </row>
@@ -6200,7 +6200,7 @@
       </c>
       <c r="P105" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>2019</v>
+        <v>2016</v>
       </c>
       <c r="Q105" s="2"/>
     </row>
@@ -6252,7 +6252,7 @@
       </c>
       <c r="P106" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>2023</v>
+        <v>2013</v>
       </c>
       <c r="Q106" s="2"/>
     </row>
@@ -6304,7 +6304,7 @@
       </c>
       <c r="P107" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>2017</v>
+        <v>2013</v>
       </c>
       <c r="Q107" s="2"/>
     </row>
@@ -6356,7 +6356,7 @@
       </c>
       <c r="P108" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>2018</v>
+        <v>2015</v>
       </c>
       <c r="Q108" s="2"/>
     </row>
@@ -6408,7 +6408,7 @@
       </c>
       <c r="P109" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>2013</v>
+        <v>2018</v>
       </c>
       <c r="Q109" s="2"/>
     </row>
@@ -6460,7 +6460,7 @@
       </c>
       <c r="P110" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>2017</v>
+        <v>2020</v>
       </c>
       <c r="Q110" s="2"/>
     </row>
@@ -6512,7 +6512,7 @@
       </c>
       <c r="P111" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>2014</v>
+        <v>2023</v>
       </c>
       <c r="Q111" s="2"/>
     </row>
@@ -6564,7 +6564,7 @@
       </c>
       <c r="P112" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="Q112" s="2"/>
     </row>
@@ -6616,7 +6616,7 @@
       </c>
       <c r="P113" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="Q113" s="2"/>
     </row>
@@ -6668,7 +6668,7 @@
       </c>
       <c r="P114" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>2020</v>
+        <v>2024</v>
       </c>
       <c r="Q114" s="2"/>
     </row>
@@ -6720,7 +6720,7 @@
       </c>
       <c r="P115" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>2015</v>
+        <v>2018</v>
       </c>
       <c r="Q115" s="2"/>
     </row>
@@ -6772,7 +6772,7 @@
       </c>
       <c r="P116" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>2015</v>
+        <v>2017</v>
       </c>
       <c r="Q116" s="2"/>
     </row>
@@ -6824,7 +6824,7 @@
       </c>
       <c r="P117" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>2023</v>
+        <v>2016</v>
       </c>
       <c r="Q117" s="2"/>
     </row>
@@ -6876,7 +6876,7 @@
       </c>
       <c r="P118" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>2016</v>
+        <v>2021</v>
       </c>
       <c r="Q118" s="2"/>
     </row>
@@ -6928,7 +6928,7 @@
       </c>
       <c r="P119" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>2018</v>
+        <v>2022</v>
       </c>
       <c r="Q119" s="2"/>
     </row>
@@ -6980,7 +6980,7 @@
       </c>
       <c r="P120" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>2016</v>
+        <v>2012</v>
       </c>
       <c r="Q120" s="2"/>
     </row>
@@ -7032,7 +7032,7 @@
       </c>
       <c r="P121" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>2022</v>
+        <v>2015</v>
       </c>
       <c r="Q121" s="2"/>
     </row>
@@ -7084,7 +7084,7 @@
       </c>
       <c r="P122" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="Q122" s="2"/>
     </row>
@@ -7136,7 +7136,7 @@
       </c>
       <c r="P123" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>2016</v>
+        <v>2013</v>
       </c>
       <c r="Q123" s="2"/>
     </row>
@@ -7188,7 +7188,7 @@
       </c>
       <c r="P124" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="Q124" s="2"/>
     </row>
@@ -7240,7 +7240,7 @@
       </c>
       <c r="P125" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>2024</v>
+        <v>2015</v>
       </c>
       <c r="Q125" s="2"/>
     </row>
@@ -7292,7 +7292,7 @@
       </c>
       <c r="P126" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>2015</v>
+        <v>2019</v>
       </c>
       <c r="Q126" s="2"/>
     </row>
@@ -7344,7 +7344,7 @@
       </c>
       <c r="P127" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="Q127" s="2"/>
     </row>
@@ -7396,7 +7396,7 @@
       </c>
       <c r="P128" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>2021</v>
+        <v>2012</v>
       </c>
       <c r="Q128" s="2"/>
     </row>
@@ -7448,7 +7448,7 @@
       </c>
       <c r="P129" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="Q129" s="2"/>
     </row>
@@ -7500,7 +7500,7 @@
       </c>
       <c r="P130" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>2014</v>
+        <v>2021</v>
       </c>
       <c r="Q130" s="2"/>
     </row>
@@ -7552,7 +7552,7 @@
       </c>
       <c r="P131" s="18">
         <f t="shared" ref="P131:P194" ca="1" si="2">RANDBETWEEN(2012,2024)</f>
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="Q131" s="2"/>
     </row>
@@ -7604,7 +7604,7 @@
       </c>
       <c r="P132" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="Q132" s="2"/>
     </row>
@@ -7708,7 +7708,7 @@
       </c>
       <c r="P134" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>2023</v>
+        <v>2017</v>
       </c>
       <c r="Q134" s="2"/>
     </row>
@@ -7760,7 +7760,7 @@
       </c>
       <c r="P135" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>2020</v>
+        <v>2014</v>
       </c>
       <c r="Q135" s="2"/>
     </row>
@@ -7812,7 +7812,7 @@
       </c>
       <c r="P136" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="Q136" s="2"/>
     </row>
@@ -7864,7 +7864,7 @@
       </c>
       <c r="P137" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="Q137" s="2"/>
     </row>
@@ -7916,7 +7916,7 @@
       </c>
       <c r="P138" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="Q138" s="2"/>
     </row>
@@ -7968,7 +7968,7 @@
       </c>
       <c r="P139" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>2012</v>
+        <v>2018</v>
       </c>
       <c r="Q139" s="2"/>
     </row>
@@ -8020,7 +8020,7 @@
       </c>
       <c r="P140" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>2021</v>
+        <v>2012</v>
       </c>
       <c r="Q140" s="2"/>
     </row>
@@ -8072,7 +8072,7 @@
       </c>
       <c r="P141" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>2016</v>
+        <v>2024</v>
       </c>
       <c r="Q141" s="2"/>
     </row>
@@ -8124,7 +8124,7 @@
       </c>
       <c r="P142" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>2012</v>
+        <v>2019</v>
       </c>
       <c r="Q142" s="2"/>
     </row>
@@ -8228,7 +8228,7 @@
       </c>
       <c r="P144" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="Q144" s="2"/>
     </row>
@@ -8280,7 +8280,7 @@
       </c>
       <c r="P145" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>2022</v>
+        <v>2019</v>
       </c>
       <c r="Q145" s="2"/>
     </row>
@@ -8332,7 +8332,7 @@
       </c>
       <c r="P146" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>2023</v>
+        <v>2019</v>
       </c>
       <c r="Q146" s="2"/>
     </row>
@@ -8384,7 +8384,7 @@
       </c>
       <c r="P147" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>2020</v>
+        <v>2012</v>
       </c>
       <c r="Q147" s="2"/>
     </row>
@@ -8436,7 +8436,7 @@
       </c>
       <c r="P148" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>2017</v>
+        <v>2012</v>
       </c>
       <c r="Q148" s="2"/>
     </row>
@@ -8488,7 +8488,7 @@
       </c>
       <c r="P149" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="Q149" s="2"/>
     </row>
@@ -8592,7 +8592,7 @@
       </c>
       <c r="P151" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>2020</v>
+        <v>2023</v>
       </c>
       <c r="Q151" s="2"/>
     </row>
@@ -8644,7 +8644,7 @@
       </c>
       <c r="P152" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>2015</v>
+        <v>2023</v>
       </c>
       <c r="Q152" s="2"/>
     </row>
@@ -8800,7 +8800,7 @@
       </c>
       <c r="P155" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="Q155" s="2"/>
     </row>
@@ -8852,7 +8852,7 @@
       </c>
       <c r="P156" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="Q156" s="2"/>
     </row>
@@ -8904,7 +8904,7 @@
       </c>
       <c r="P157" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>2024</v>
+        <v>2015</v>
       </c>
       <c r="Q157" s="2"/>
     </row>
@@ -8956,7 +8956,7 @@
       </c>
       <c r="P158" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>2021</v>
+        <v>2017</v>
       </c>
       <c r="Q158" s="2"/>
     </row>
@@ -9008,7 +9008,7 @@
       </c>
       <c r="P159" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="Q159" s="2"/>
     </row>
@@ -9060,7 +9060,7 @@
       </c>
       <c r="P160" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>2017</v>
+        <v>2023</v>
       </c>
       <c r="Q160" s="2"/>
     </row>
@@ -9112,7 +9112,7 @@
       </c>
       <c r="P161" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>2021</v>
+        <v>2012</v>
       </c>
       <c r="Q161" s="2"/>
     </row>
@@ -9164,7 +9164,7 @@
       </c>
       <c r="P162" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="Q162" s="2"/>
     </row>
@@ -9216,7 +9216,7 @@
       </c>
       <c r="P163" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>2015</v>
+        <v>2019</v>
       </c>
       <c r="Q163" s="2"/>
     </row>
@@ -9320,7 +9320,7 @@
       </c>
       <c r="P165" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>2012</v>
+        <v>2023</v>
       </c>
       <c r="Q165" s="2"/>
     </row>
@@ -9372,7 +9372,7 @@
       </c>
       <c r="P166" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>2015</v>
+        <v>2023</v>
       </c>
       <c r="Q166" s="2"/>
     </row>
@@ -9424,7 +9424,7 @@
       </c>
       <c r="P167" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>2014</v>
+        <v>2022</v>
       </c>
       <c r="Q167" s="2"/>
     </row>
@@ -9476,7 +9476,7 @@
       </c>
       <c r="P168" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="Q168" s="2"/>
     </row>
@@ -9528,7 +9528,7 @@
       </c>
       <c r="P169" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>2013</v>
+        <v>2023</v>
       </c>
       <c r="Q169" s="2"/>
     </row>
@@ -9580,7 +9580,7 @@
       </c>
       <c r="P170" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>2013</v>
+        <v>2019</v>
       </c>
       <c r="Q170" s="2"/>
     </row>
@@ -9632,7 +9632,7 @@
       </c>
       <c r="P171" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="Q171" s="2"/>
     </row>
@@ -9684,7 +9684,7 @@
       </c>
       <c r="P172" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>2024</v>
+        <v>2013</v>
       </c>
       <c r="Q172" s="2"/>
     </row>
@@ -9736,7 +9736,7 @@
       </c>
       <c r="P173" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>2013</v>
+        <v>2015</v>
       </c>
       <c r="Q173" s="2"/>
     </row>
@@ -9788,7 +9788,7 @@
       </c>
       <c r="P174" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="Q174" s="2"/>
     </row>
@@ -9840,7 +9840,7 @@
       </c>
       <c r="P175" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>2018</v>
+        <v>2022</v>
       </c>
       <c r="Q175" s="2"/>
     </row>
@@ -9892,7 +9892,7 @@
       </c>
       <c r="P176" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>2012</v>
+        <v>2020</v>
       </c>
       <c r="Q176" s="2"/>
     </row>
@@ -9944,7 +9944,7 @@
       </c>
       <c r="P177" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>2012</v>
+        <v>2019</v>
       </c>
       <c r="Q177" s="2"/>
     </row>
@@ -10048,7 +10048,7 @@
       </c>
       <c r="P179" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>2019</v>
+        <v>2016</v>
       </c>
       <c r="Q179" s="2"/>
     </row>
@@ -10100,7 +10100,7 @@
       </c>
       <c r="P180" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>2017</v>
+        <v>2012</v>
       </c>
       <c r="Q180" s="2"/>
     </row>
@@ -10204,7 +10204,7 @@
       </c>
       <c r="P182" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>2019</v>
+        <v>2022</v>
       </c>
       <c r="Q182" s="2"/>
     </row>
@@ -10256,7 +10256,7 @@
       </c>
       <c r="P183" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>2012</v>
+        <v>2023</v>
       </c>
       <c r="Q183" s="2"/>
     </row>
@@ -10308,7 +10308,7 @@
       </c>
       <c r="P184" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>2013</v>
+        <v>2021</v>
       </c>
       <c r="Q184" s="2"/>
     </row>
@@ -10360,7 +10360,7 @@
       </c>
       <c r="P185" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>2013</v>
+        <v>2016</v>
       </c>
       <c r="Q185" s="2"/>
     </row>
@@ -10412,7 +10412,7 @@
       </c>
       <c r="P186" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>2012</v>
+        <v>2023</v>
       </c>
       <c r="Q186" s="2"/>
     </row>
@@ -10464,7 +10464,7 @@
       </c>
       <c r="P187" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="Q187" s="2"/>
     </row>
@@ -10516,7 +10516,7 @@
       </c>
       <c r="P188" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>2021</v>
+        <v>2017</v>
       </c>
       <c r="Q188" s="2"/>
     </row>
@@ -10568,7 +10568,7 @@
       </c>
       <c r="P189" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>2024</v>
+        <v>2016</v>
       </c>
       <c r="Q189" s="2"/>
     </row>
@@ -10620,7 +10620,7 @@
       </c>
       <c r="P190" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>2024</v>
+        <v>2013</v>
       </c>
       <c r="Q190" s="2"/>
     </row>
@@ -10672,7 +10672,7 @@
       </c>
       <c r="P191" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>2022</v>
+        <v>2016</v>
       </c>
       <c r="Q191" s="2"/>
     </row>
@@ -10724,7 +10724,7 @@
       </c>
       <c r="P192" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="Q192" s="2"/>
     </row>
@@ -10776,7 +10776,7 @@
       </c>
       <c r="P193" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="Q193" s="2"/>
     </row>
@@ -10828,7 +10828,7 @@
       </c>
       <c r="P194" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="Q194" s="2"/>
     </row>
@@ -10880,7 +10880,7 @@
       </c>
       <c r="P195" s="18">
         <f t="shared" ref="P195:P258" ca="1" si="3">RANDBETWEEN(2012,2024)</f>
-        <v>2022</v>
+        <v>2024</v>
       </c>
       <c r="Q195" s="2"/>
     </row>
@@ -10932,7 +10932,7 @@
       </c>
       <c r="P196" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>2018</v>
+        <v>2023</v>
       </c>
       <c r="Q196" s="2"/>
     </row>
@@ -10984,7 +10984,7 @@
       </c>
       <c r="P197" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>2024</v>
+        <v>2016</v>
       </c>
       <c r="Q197" s="2"/>
     </row>
@@ -11036,7 +11036,7 @@
       </c>
       <c r="P198" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>2021</v>
+        <v>2024</v>
       </c>
       <c r="Q198" s="2"/>
     </row>
@@ -11088,7 +11088,7 @@
       </c>
       <c r="P199" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>2017</v>
+        <v>2023</v>
       </c>
       <c r="Q199" s="2"/>
     </row>
@@ -11140,7 +11140,7 @@
       </c>
       <c r="P200" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>2012</v>
+        <v>2019</v>
       </c>
       <c r="Q200" s="2"/>
     </row>
@@ -11192,7 +11192,7 @@
       </c>
       <c r="P201" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>2015</v>
+        <v>2020</v>
       </c>
       <c r="Q201" s="2"/>
     </row>
@@ -11244,7 +11244,7 @@
       </c>
       <c r="P202" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>2024</v>
+        <v>2017</v>
       </c>
       <c r="Q202" s="2"/>
     </row>
@@ -11296,7 +11296,7 @@
       </c>
       <c r="P203" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>2015</v>
+        <v>2012</v>
       </c>
       <c r="Q203" s="2"/>
     </row>
@@ -11348,7 +11348,7 @@
       </c>
       <c r="P204" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>2014</v>
+        <v>2017</v>
       </c>
       <c r="Q204" s="2"/>
     </row>
@@ -11400,7 +11400,7 @@
       </c>
       <c r="P205" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="Q205" s="2"/>
     </row>
@@ -11452,7 +11452,7 @@
       </c>
       <c r="P206" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>2024</v>
+        <v>2017</v>
       </c>
       <c r="Q206" s="2"/>
     </row>
@@ -11504,7 +11504,7 @@
       </c>
       <c r="P207" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>2022</v>
+        <v>2017</v>
       </c>
       <c r="Q207" s="2"/>
     </row>
@@ -11556,7 +11556,7 @@
       </c>
       <c r="P208" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="Q208" s="2"/>
     </row>
@@ -11608,7 +11608,7 @@
       </c>
       <c r="P209" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>2019</v>
+        <v>2016</v>
       </c>
       <c r="Q209" s="2"/>
     </row>
@@ -11660,7 +11660,7 @@
       </c>
       <c r="P210" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>2023</v>
+        <v>2014</v>
       </c>
       <c r="Q210" s="2"/>
     </row>
@@ -11712,7 +11712,7 @@
       </c>
       <c r="P211" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>2015</v>
+        <v>2024</v>
       </c>
       <c r="Q211" s="2"/>
     </row>
@@ -11764,7 +11764,7 @@
       </c>
       <c r="P212" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="Q212" s="2"/>
     </row>
@@ -11816,7 +11816,7 @@
       </c>
       <c r="P213" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>2020</v>
+        <v>2013</v>
       </c>
       <c r="Q213" s="2"/>
     </row>
@@ -11868,7 +11868,7 @@
       </c>
       <c r="P214" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>2023</v>
+        <v>2015</v>
       </c>
       <c r="Q214" s="2"/>
     </row>
@@ -11920,7 +11920,7 @@
       </c>
       <c r="P215" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="Q215" s="2"/>
     </row>
@@ -11972,7 +11972,7 @@
       </c>
       <c r="P216" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="Q216" s="2"/>
     </row>
@@ -12024,7 +12024,7 @@
       </c>
       <c r="P217" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>2019</v>
+        <v>2012</v>
       </c>
       <c r="Q217" s="2"/>
     </row>
@@ -12076,7 +12076,7 @@
       </c>
       <c r="P218" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>2022</v>
+        <v>2015</v>
       </c>
       <c r="Q218" s="2"/>
     </row>
@@ -12128,7 +12128,7 @@
       </c>
       <c r="P219" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="Q219" s="2"/>
     </row>
@@ -12180,7 +12180,7 @@
       </c>
       <c r="P220" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>2016</v>
+        <v>2021</v>
       </c>
       <c r="Q220" s="2"/>
     </row>
@@ -12232,7 +12232,7 @@
       </c>
       <c r="P221" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="Q221" s="2"/>
     </row>
@@ -12284,7 +12284,7 @@
       </c>
       <c r="P222" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="Q222" s="2"/>
     </row>
@@ -12336,7 +12336,7 @@
       </c>
       <c r="P223" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>2020</v>
+        <v>2015</v>
       </c>
       <c r="Q223" s="2"/>
     </row>
@@ -12388,7 +12388,7 @@
       </c>
       <c r="P224" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>2022</v>
+        <v>2013</v>
       </c>
       <c r="Q224" s="2"/>
     </row>
@@ -12440,7 +12440,7 @@
       </c>
       <c r="P225" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>2019</v>
+        <v>2016</v>
       </c>
       <c r="Q225" s="2"/>
     </row>
@@ -12492,7 +12492,7 @@
       </c>
       <c r="P226" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="Q226" s="2"/>
     </row>
@@ -12544,7 +12544,7 @@
       </c>
       <c r="P227" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="Q227" s="2"/>
     </row>
@@ -12596,7 +12596,7 @@
       </c>
       <c r="P228" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="Q228" s="2"/>
     </row>
@@ -12648,7 +12648,7 @@
       </c>
       <c r="P229" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>2021</v>
+        <v>2014</v>
       </c>
       <c r="Q229" s="2"/>
     </row>
@@ -12700,7 +12700,7 @@
       </c>
       <c r="P230" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>2014</v>
+        <v>2023</v>
       </c>
       <c r="Q230" s="2"/>
     </row>
@@ -12752,7 +12752,7 @@
       </c>
       <c r="P231" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>2023</v>
+        <v>2014</v>
       </c>
       <c r="Q231" s="2"/>
     </row>
@@ -12804,7 +12804,7 @@
       </c>
       <c r="P232" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>2012</v>
+        <v>2017</v>
       </c>
       <c r="Q232" s="2"/>
     </row>
@@ -12856,7 +12856,7 @@
       </c>
       <c r="P233" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>2023</v>
+        <v>2013</v>
       </c>
       <c r="Q233" s="2"/>
     </row>
@@ -12908,7 +12908,7 @@
       </c>
       <c r="P234" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="Q234" s="2"/>
     </row>
@@ -12960,7 +12960,7 @@
       </c>
       <c r="P235" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>2013</v>
+        <v>2023</v>
       </c>
       <c r="Q235" s="2"/>
     </row>
@@ -13012,7 +13012,7 @@
       </c>
       <c r="P236" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>2013</v>
+        <v>2016</v>
       </c>
       <c r="Q236" s="2"/>
     </row>
@@ -13064,7 +13064,7 @@
       </c>
       <c r="P237" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>2012</v>
+        <v>2014</v>
       </c>
       <c r="Q237" s="2"/>
     </row>
@@ -13116,7 +13116,7 @@
       </c>
       <c r="P238" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="Q238" s="2"/>
     </row>
@@ -13168,7 +13168,7 @@
       </c>
       <c r="P239" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>2022</v>
+        <v>2018</v>
       </c>
       <c r="Q239" s="2"/>
     </row>
@@ -13220,7 +13220,7 @@
       </c>
       <c r="P240" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="Q240" s="2"/>
     </row>
@@ -13272,7 +13272,7 @@
       </c>
       <c r="P241" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>2022</v>
+        <v>2017</v>
       </c>
       <c r="Q241" s="2"/>
     </row>
@@ -13324,7 +13324,7 @@
       </c>
       <c r="P242" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>2012</v>
+        <v>2017</v>
       </c>
       <c r="Q242" s="2"/>
     </row>
@@ -13376,7 +13376,7 @@
       </c>
       <c r="P243" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>2015</v>
+        <v>2022</v>
       </c>
       <c r="Q243" s="2"/>
     </row>
@@ -13428,7 +13428,7 @@
       </c>
       <c r="P244" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>2020</v>
+        <v>2014</v>
       </c>
       <c r="Q244" s="2"/>
     </row>
@@ -13532,7 +13532,7 @@
       </c>
       <c r="P246" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>2024</v>
+        <v>2012</v>
       </c>
       <c r="Q246" s="2"/>
     </row>
@@ -13636,7 +13636,7 @@
       </c>
       <c r="P248" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="Q248" s="2"/>
     </row>
@@ -13688,7 +13688,7 @@
       </c>
       <c r="P249" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>2012</v>
+        <v>2016</v>
       </c>
       <c r="Q249" s="2"/>
     </row>
@@ -13792,7 +13792,7 @@
       </c>
       <c r="P251" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="Q251" s="2"/>
     </row>
@@ -13844,7 +13844,7 @@
       </c>
       <c r="P252" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="Q252" s="2"/>
     </row>
@@ -13948,7 +13948,7 @@
       </c>
       <c r="P254" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>2014</v>
+        <v>2016</v>
       </c>
       <c r="Q254" s="2"/>
     </row>
@@ -14000,7 +14000,7 @@
       </c>
       <c r="P255" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>2020</v>
+        <v>2013</v>
       </c>
       <c r="Q255" s="2"/>
     </row>
@@ -14052,7 +14052,7 @@
       </c>
       <c r="P256" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="Q256" s="2"/>
     </row>
@@ -14104,7 +14104,7 @@
       </c>
       <c r="P257" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>2018</v>
+        <v>2024</v>
       </c>
       <c r="Q257" s="2"/>
     </row>
@@ -14156,7 +14156,7 @@
       </c>
       <c r="P258" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>2015</v>
+        <v>2022</v>
       </c>
       <c r="Q258" s="2"/>
     </row>
@@ -14208,7 +14208,7 @@
       </c>
       <c r="P259" s="18">
         <f t="shared" ref="P259:P322" ca="1" si="4">RANDBETWEEN(2012,2024)</f>
-        <v>2015</v>
+        <v>2012</v>
       </c>
       <c r="Q259" s="2"/>
     </row>
@@ -14260,7 +14260,7 @@
       </c>
       <c r="P260" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>2013</v>
+        <v>2022</v>
       </c>
       <c r="Q260" s="2"/>
     </row>
@@ -14312,7 +14312,7 @@
       </c>
       <c r="P261" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>2016</v>
+        <v>2023</v>
       </c>
       <c r="Q261" s="2"/>
     </row>
@@ -14364,7 +14364,7 @@
       </c>
       <c r="P262" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="Q262" s="2"/>
     </row>
@@ -14416,7 +14416,7 @@
       </c>
       <c r="P263" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>2018</v>
+        <v>2021</v>
       </c>
       <c r="Q263" s="2"/>
     </row>
@@ -14468,7 +14468,7 @@
       </c>
       <c r="P264" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>2024</v>
+        <v>2017</v>
       </c>
       <c r="Q264" s="2"/>
     </row>
@@ -14572,7 +14572,7 @@
       </c>
       <c r="P266" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>2014</v>
+        <v>2017</v>
       </c>
       <c r="Q266" s="2"/>
     </row>
@@ -14624,7 +14624,7 @@
       </c>
       <c r="P267" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>2024</v>
+        <v>2016</v>
       </c>
       <c r="Q267" s="2"/>
     </row>
@@ -14676,7 +14676,7 @@
       </c>
       <c r="P268" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>2018</v>
+        <v>2012</v>
       </c>
       <c r="Q268" s="2"/>
     </row>
@@ -14728,7 +14728,7 @@
       </c>
       <c r="P269" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>2024</v>
+        <v>2013</v>
       </c>
       <c r="Q269" s="2"/>
     </row>
@@ -14780,7 +14780,7 @@
       </c>
       <c r="P270" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="Q270" s="2"/>
     </row>
@@ -14832,7 +14832,7 @@
       </c>
       <c r="P271" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>2024</v>
+        <v>2018</v>
       </c>
       <c r="Q271" s="2"/>
     </row>
@@ -14884,7 +14884,7 @@
       </c>
       <c r="P272" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>2020</v>
+        <v>2017</v>
       </c>
       <c r="Q272" s="2"/>
     </row>
@@ -14936,7 +14936,7 @@
       </c>
       <c r="P273" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>2015</v>
+        <v>2020</v>
       </c>
       <c r="Q273" s="2"/>
     </row>
@@ -14988,7 +14988,7 @@
       </c>
       <c r="P274" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>2021</v>
+        <v>2018</v>
       </c>
       <c r="Q274" s="2"/>
     </row>
@@ -15040,7 +15040,7 @@
       </c>
       <c r="P275" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>2024</v>
+        <v>2020</v>
       </c>
       <c r="Q275" s="2"/>
     </row>
@@ -15092,7 +15092,7 @@
       </c>
       <c r="P276" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>2021</v>
+        <v>2012</v>
       </c>
       <c r="Q276" s="2"/>
     </row>
@@ -15144,7 +15144,7 @@
       </c>
       <c r="P277" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="Q277" s="2"/>
     </row>
@@ -15248,7 +15248,7 @@
       </c>
       <c r="P279" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>2023</v>
+        <v>2016</v>
       </c>
       <c r="Q279" s="2"/>
     </row>
@@ -15300,7 +15300,7 @@
       </c>
       <c r="P280" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>2019</v>
+        <v>2022</v>
       </c>
       <c r="Q280" s="2"/>
     </row>
@@ -15352,7 +15352,7 @@
       </c>
       <c r="P281" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>2012</v>
+        <v>2024</v>
       </c>
       <c r="Q281" s="2"/>
     </row>
@@ -15404,7 +15404,7 @@
       </c>
       <c r="P282" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>2019</v>
+        <v>2014</v>
       </c>
       <c r="Q282" s="2"/>
     </row>
@@ -15456,7 +15456,7 @@
       </c>
       <c r="P283" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>2015</v>
+        <v>2019</v>
       </c>
       <c r="Q283" s="2"/>
     </row>
@@ -15508,7 +15508,7 @@
       </c>
       <c r="P284" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>2015</v>
+        <v>2024</v>
       </c>
       <c r="Q284" s="2"/>
     </row>
@@ -15560,7 +15560,7 @@
       </c>
       <c r="P285" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="Q285" s="2"/>
     </row>
@@ -15612,7 +15612,7 @@
       </c>
       <c r="P286" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>2012</v>
+        <v>2018</v>
       </c>
       <c r="Q286" s="2"/>
     </row>
@@ -15664,7 +15664,7 @@
       </c>
       <c r="P287" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>2016</v>
+        <v>2022</v>
       </c>
       <c r="Q287" s="2"/>
     </row>
@@ -15716,7 +15716,7 @@
       </c>
       <c r="P288" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>2013</v>
+        <v>2023</v>
       </c>
       <c r="Q288" s="2"/>
     </row>
@@ -15768,7 +15768,7 @@
       </c>
       <c r="P289" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>2022</v>
+        <v>2013</v>
       </c>
       <c r="Q289" s="2"/>
     </row>
@@ -15820,7 +15820,7 @@
       </c>
       <c r="P290" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>2022</v>
+        <v>2012</v>
       </c>
       <c r="Q290" s="2"/>
     </row>
@@ -15872,7 +15872,7 @@
       </c>
       <c r="P291" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>2014</v>
+        <v>2016</v>
       </c>
       <c r="Q291" s="2"/>
     </row>
@@ -15924,7 +15924,7 @@
       </c>
       <c r="P292" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>2014</v>
+        <v>2021</v>
       </c>
       <c r="Q292" s="2"/>
     </row>
@@ -15976,7 +15976,7 @@
       </c>
       <c r="P293" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>2022</v>
+        <v>2013</v>
       </c>
       <c r="Q293" s="2"/>
     </row>
@@ -16028,7 +16028,7 @@
       </c>
       <c r="P294" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>2014</v>
+        <v>2019</v>
       </c>
       <c r="Q294" s="2"/>
     </row>
@@ -16080,7 +16080,7 @@
       </c>
       <c r="P295" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>2015</v>
+        <v>2022</v>
       </c>
       <c r="Q295" s="2"/>
     </row>
@@ -16132,7 +16132,7 @@
       </c>
       <c r="P296" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>2022</v>
+        <v>2012</v>
       </c>
       <c r="Q296" s="2"/>
     </row>
@@ -16184,7 +16184,7 @@
       </c>
       <c r="P297" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>2012</v>
+        <v>2016</v>
       </c>
       <c r="Q297" s="2"/>
     </row>
@@ -16236,7 +16236,7 @@
       </c>
       <c r="P298" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>2019</v>
+        <v>2024</v>
       </c>
       <c r="Q298" s="2"/>
     </row>
@@ -16288,7 +16288,7 @@
       </c>
       <c r="P299" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="Q299" s="2"/>
     </row>
@@ -16340,7 +16340,7 @@
       </c>
       <c r="P300" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="Q300" s="2"/>
     </row>
@@ -16392,7 +16392,7 @@
       </c>
       <c r="P301" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="Q301" s="2"/>
     </row>
@@ -16444,7 +16444,7 @@
       </c>
       <c r="P302" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="Q302" s="2"/>
     </row>
@@ -16548,7 +16548,7 @@
       </c>
       <c r="P304" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>2024</v>
+        <v>2014</v>
       </c>
       <c r="Q304" s="2"/>
     </row>
@@ -16600,7 +16600,7 @@
       </c>
       <c r="P305" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>2021</v>
+        <v>2018</v>
       </c>
       <c r="Q305" s="2"/>
     </row>
@@ -16652,7 +16652,7 @@
       </c>
       <c r="P306" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="Q306" s="2"/>
     </row>
@@ -16704,7 +16704,7 @@
       </c>
       <c r="P307" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>2022</v>
+        <v>2017</v>
       </c>
       <c r="Q307" s="2"/>
     </row>
@@ -16756,7 +16756,7 @@
       </c>
       <c r="P308" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="Q308" s="2"/>
     </row>
@@ -16808,7 +16808,7 @@
       </c>
       <c r="P309" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>2021</v>
+        <v>2018</v>
       </c>
       <c r="Q309" s="2"/>
     </row>
@@ -16860,7 +16860,7 @@
       </c>
       <c r="P310" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>2014</v>
+        <v>2017</v>
       </c>
       <c r="Q310" s="2"/>
     </row>
@@ -16912,7 +16912,7 @@
       </c>
       <c r="P311" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>2012</v>
+        <v>2014</v>
       </c>
       <c r="Q311" s="2"/>
     </row>
@@ -16964,7 +16964,7 @@
       </c>
       <c r="P312" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="Q312" s="2"/>
     </row>
@@ -17016,7 +17016,7 @@
       </c>
       <c r="P313" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>2012</v>
+        <v>2020</v>
       </c>
       <c r="Q313" s="2"/>
     </row>
@@ -17068,7 +17068,7 @@
       </c>
       <c r="P314" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="Q314" s="2"/>
     </row>
@@ -17120,7 +17120,7 @@
       </c>
       <c r="P315" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>2020</v>
+        <v>2015</v>
       </c>
       <c r="Q315" s="2"/>
     </row>
@@ -17172,7 +17172,7 @@
       </c>
       <c r="P316" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="Q316" s="2"/>
     </row>
@@ -17224,7 +17224,7 @@
       </c>
       <c r="P317" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>2017</v>
+        <v>2021</v>
       </c>
       <c r="Q317" s="2"/>
     </row>
@@ -17276,7 +17276,7 @@
       </c>
       <c r="P318" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>2015</v>
+        <v>2012</v>
       </c>
       <c r="Q318" s="2"/>
     </row>
@@ -17328,7 +17328,7 @@
       </c>
       <c r="P319" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>2021</v>
+        <v>2017</v>
       </c>
       <c r="Q319" s="2"/>
     </row>
@@ -17380,7 +17380,7 @@
       </c>
       <c r="P320" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>2024</v>
+        <v>2013</v>
       </c>
       <c r="Q320" s="2"/>
     </row>
@@ -17432,7 +17432,7 @@
       </c>
       <c r="P321" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>2015</v>
+        <v>2019</v>
       </c>
       <c r="Q321" s="2"/>
     </row>
@@ -17484,7 +17484,7 @@
       </c>
       <c r="P322" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="Q322" s="2"/>
     </row>
@@ -17536,7 +17536,7 @@
       </c>
       <c r="P323" s="18">
         <f t="shared" ref="P323:P386" ca="1" si="5">RANDBETWEEN(2012,2024)</f>
-        <v>2024</v>
+        <v>2019</v>
       </c>
       <c r="Q323" s="2"/>
     </row>
@@ -17588,7 +17588,7 @@
       </c>
       <c r="P324" s="18">
         <f t="shared" ca="1" si="5"/>
-        <v>2017</v>
+        <v>2023</v>
       </c>
       <c r="Q324" s="2"/>
     </row>
@@ -17640,7 +17640,7 @@
       </c>
       <c r="P325" s="18">
         <f t="shared" ca="1" si="5"/>
-        <v>2018</v>
+        <v>2013</v>
       </c>
       <c r="Q325" s="2"/>
     </row>
@@ -17692,7 +17692,7 @@
       </c>
       <c r="P326" s="18">
         <f t="shared" ca="1" si="5"/>
-        <v>2023</v>
+        <v>2016</v>
       </c>
       <c r="Q326" s="2"/>
     </row>
@@ -17744,7 +17744,7 @@
       </c>
       <c r="P327" s="18">
         <f t="shared" ca="1" si="5"/>
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="Q327" s="2"/>
     </row>
@@ -17796,7 +17796,7 @@
       </c>
       <c r="P328" s="18">
         <f t="shared" ca="1" si="5"/>
-        <v>2023</v>
+        <v>2019</v>
       </c>
       <c r="Q328" s="2"/>
     </row>
@@ -17848,7 +17848,7 @@
       </c>
       <c r="P329" s="18">
         <f t="shared" ca="1" si="5"/>
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="Q329" s="2"/>
     </row>
@@ -17900,7 +17900,7 @@
       </c>
       <c r="P330" s="18">
         <f t="shared" ca="1" si="5"/>
-        <v>2015</v>
+        <v>2012</v>
       </c>
       <c r="Q330" s="2"/>
     </row>
@@ -17952,7 +17952,7 @@
       </c>
       <c r="P331" s="18">
         <f t="shared" ca="1" si="5"/>
-        <v>2020</v>
+        <v>2017</v>
       </c>
       <c r="Q331" s="2"/>
     </row>
@@ -18004,7 +18004,7 @@
       </c>
       <c r="P332" s="18">
         <f t="shared" ca="1" si="5"/>
-        <v>2012</v>
+        <v>2019</v>
       </c>
       <c r="Q332" s="2"/>
     </row>
@@ -18056,7 +18056,7 @@
       </c>
       <c r="P333" s="18">
         <f t="shared" ca="1" si="5"/>
-        <v>2021</v>
+        <v>2017</v>
       </c>
       <c r="Q333" s="2"/>
     </row>
@@ -18108,7 +18108,7 @@
       </c>
       <c r="P334" s="18">
         <f t="shared" ca="1" si="5"/>
-        <v>2022</v>
+        <v>2017</v>
       </c>
       <c r="Q334" s="2"/>
     </row>
@@ -18160,7 +18160,7 @@
       </c>
       <c r="P335" s="18">
         <f t="shared" ca="1" si="5"/>
-        <v>2023</v>
+        <v>2013</v>
       </c>
       <c r="Q335" s="2"/>
     </row>
@@ -18212,7 +18212,7 @@
       </c>
       <c r="P336" s="18">
         <f t="shared" ca="1" si="5"/>
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="Q336" s="2"/>
     </row>
@@ -18316,7 +18316,7 @@
       </c>
       <c r="P338" s="18">
         <f t="shared" ca="1" si="5"/>
-        <v>2013</v>
+        <v>2017</v>
       </c>
       <c r="Q338" s="2"/>
     </row>
@@ -18368,7 +18368,7 @@
       </c>
       <c r="P339" s="18">
         <f t="shared" ca="1" si="5"/>
-        <v>2024</v>
+        <v>2015</v>
       </c>
       <c r="Q339" s="2"/>
     </row>
@@ -18420,7 +18420,7 @@
       </c>
       <c r="P340" s="18">
         <f t="shared" ca="1" si="5"/>
-        <v>2014</v>
+        <v>2017</v>
       </c>
       <c r="Q340" s="2"/>
     </row>
@@ -18472,7 +18472,7 @@
       </c>
       <c r="P341" s="18">
         <f t="shared" ca="1" si="5"/>
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="Q341" s="2"/>
     </row>
@@ -18524,7 +18524,7 @@
       </c>
       <c r="P342" s="18">
         <f t="shared" ca="1" si="5"/>
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="Q342" s="2"/>
     </row>
@@ -18576,7 +18576,7 @@
       </c>
       <c r="P343" s="18">
         <f t="shared" ca="1" si="5"/>
-        <v>2022</v>
+        <v>2024</v>
       </c>
       <c r="Q343" s="2"/>
     </row>
@@ -18628,7 +18628,7 @@
       </c>
       <c r="P344" s="18">
         <f t="shared" ca="1" si="5"/>
-        <v>2023</v>
+        <v>2015</v>
       </c>
       <c r="Q344" s="2"/>
     </row>
@@ -18680,7 +18680,7 @@
       </c>
       <c r="P345" s="18">
         <f t="shared" ca="1" si="5"/>
-        <v>2024</v>
+        <v>2020</v>
       </c>
       <c r="Q345" s="2"/>
     </row>
@@ -18732,7 +18732,7 @@
       </c>
       <c r="P346" s="18">
         <f t="shared" ca="1" si="5"/>
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="Q346" s="2"/>
     </row>
@@ -18784,7 +18784,7 @@
       </c>
       <c r="P347" s="18">
         <f t="shared" ca="1" si="5"/>
-        <v>2018</v>
+        <v>2022</v>
       </c>
       <c r="Q347" s="2"/>
     </row>
@@ -18888,7 +18888,7 @@
       </c>
       <c r="P349" s="18">
         <f t="shared" ca="1" si="5"/>
-        <v>2024</v>
+        <v>2019</v>
       </c>
       <c r="Q349" s="2"/>
     </row>
@@ -18992,7 +18992,7 @@
       </c>
       <c r="P351" s="18">
         <f t="shared" ca="1" si="5"/>
-        <v>2024</v>
+        <v>2021</v>
       </c>
       <c r="Q351" s="2"/>
     </row>
@@ -19044,7 +19044,7 @@
       </c>
       <c r="P352" s="18">
         <f t="shared" ca="1" si="5"/>
-        <v>2019</v>
+        <v>2024</v>
       </c>
       <c r="Q352" s="2"/>
     </row>
@@ -19096,7 +19096,7 @@
       </c>
       <c r="P353" s="18">
         <f t="shared" ca="1" si="5"/>
-        <v>2012</v>
+        <v>2022</v>
       </c>
       <c r="Q353" s="2"/>
     </row>
@@ -19148,7 +19148,7 @@
       </c>
       <c r="P354" s="18">
         <f t="shared" ca="1" si="5"/>
-        <v>2022</v>
+        <v>2014</v>
       </c>
       <c r="Q354" s="2"/>
     </row>
@@ -19200,7 +19200,7 @@
       </c>
       <c r="P355" s="18">
         <f t="shared" ca="1" si="5"/>
-        <v>2019</v>
+        <v>2012</v>
       </c>
       <c r="Q355" s="2"/>
     </row>
@@ -19304,7 +19304,7 @@
       </c>
       <c r="P357" s="18">
         <f t="shared" ca="1" si="5"/>
-        <v>2023</v>
+        <v>2013</v>
       </c>
       <c r="Q357" s="2"/>
     </row>
@@ -19356,7 +19356,7 @@
       </c>
       <c r="P358" s="18">
         <f t="shared" ca="1" si="5"/>
-        <v>2012</v>
+        <v>2021</v>
       </c>
       <c r="Q358" s="2"/>
     </row>
@@ -19408,7 +19408,7 @@
       </c>
       <c r="P359" s="18">
         <f t="shared" ca="1" si="5"/>
-        <v>2016</v>
+        <v>2022</v>
       </c>
       <c r="Q359" s="2"/>
     </row>
@@ -19460,7 +19460,7 @@
       </c>
       <c r="P360" s="18">
         <f t="shared" ca="1" si="5"/>
-        <v>2021</v>
+        <v>2018</v>
       </c>
       <c r="Q360" s="2"/>
     </row>
@@ -19512,7 +19512,7 @@
       </c>
       <c r="P361" s="18">
         <f t="shared" ca="1" si="5"/>
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="Q361" s="2"/>
     </row>
@@ -19564,7 +19564,7 @@
       </c>
       <c r="P362" s="18">
         <f t="shared" ca="1" si="5"/>
-        <v>2016</v>
+        <v>2021</v>
       </c>
       <c r="Q362" s="2"/>
     </row>
@@ -19616,7 +19616,7 @@
       </c>
       <c r="P363" s="18">
         <f t="shared" ca="1" si="5"/>
-        <v>2015</v>
+        <v>2018</v>
       </c>
       <c r="Q363" s="2"/>
     </row>
@@ -19668,7 +19668,7 @@
       </c>
       <c r="P364" s="18">
         <f t="shared" ca="1" si="5"/>
-        <v>2018</v>
+        <v>2021</v>
       </c>
       <c r="Q364" s="2"/>
     </row>
@@ -19720,7 +19720,7 @@
       </c>
       <c r="P365" s="18">
         <f t="shared" ca="1" si="5"/>
-        <v>2021</v>
+        <v>2024</v>
       </c>
       <c r="Q365" s="2"/>
     </row>
@@ -19772,7 +19772,7 @@
       </c>
       <c r="P366" s="18">
         <f t="shared" ca="1" si="5"/>
-        <v>2019</v>
+        <v>2023</v>
       </c>
       <c r="Q366" s="2"/>
     </row>
@@ -19824,7 +19824,7 @@
       </c>
       <c r="P367" s="18">
         <f t="shared" ca="1" si="5"/>
-        <v>2021</v>
+        <v>2013</v>
       </c>
       <c r="Q367" s="2"/>
     </row>
@@ -19876,7 +19876,7 @@
       </c>
       <c r="P368" s="18">
         <f t="shared" ca="1" si="5"/>
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="Q368" s="2"/>
     </row>
@@ -19928,7 +19928,7 @@
       </c>
       <c r="P369" s="18">
         <f t="shared" ca="1" si="5"/>
-        <v>2015</v>
+        <v>2019</v>
       </c>
       <c r="Q369" s="2"/>
     </row>
@@ -19980,7 +19980,7 @@
       </c>
       <c r="P370" s="18">
         <f t="shared" ca="1" si="5"/>
-        <v>2016</v>
+        <v>2019</v>
       </c>
       <c r="Q370" s="2"/>
     </row>
@@ -20032,7 +20032,7 @@
       </c>
       <c r="P371" s="18">
         <f t="shared" ca="1" si="5"/>
-        <v>2014</v>
+        <v>2017</v>
       </c>
       <c r="Q371" s="2"/>
     </row>
@@ -20084,7 +20084,7 @@
       </c>
       <c r="P372" s="18">
         <f t="shared" ca="1" si="5"/>
-        <v>2012</v>
+        <v>2017</v>
       </c>
       <c r="Q372" s="2"/>
     </row>
@@ -20136,7 +20136,7 @@
       </c>
       <c r="P373" s="18">
         <f t="shared" ca="1" si="5"/>
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="Q373" s="2"/>
     </row>
@@ -20188,7 +20188,7 @@
       </c>
       <c r="P374" s="18">
         <f t="shared" ca="1" si="5"/>
-        <v>2014</v>
+        <v>2022</v>
       </c>
       <c r="Q374" s="2"/>
     </row>
@@ -20240,7 +20240,7 @@
       </c>
       <c r="P375" s="18">
         <f t="shared" ca="1" si="5"/>
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="Q375" s="2"/>
     </row>
@@ -20396,7 +20396,7 @@
       </c>
       <c r="P378" s="18">
         <f t="shared" ca="1" si="5"/>
-        <v>2018</v>
+        <v>2024</v>
       </c>
       <c r="Q378" s="2"/>
     </row>
@@ -20448,7 +20448,7 @@
       </c>
       <c r="P379" s="18">
         <f t="shared" ca="1" si="5"/>
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="Q379" s="2"/>
     </row>
@@ -20500,7 +20500,7 @@
       </c>
       <c r="P380" s="18">
         <f t="shared" ca="1" si="5"/>
-        <v>2017</v>
+        <v>2023</v>
       </c>
       <c r="Q380" s="2"/>
     </row>
@@ -20552,7 +20552,7 @@
       </c>
       <c r="P381" s="18">
         <f t="shared" ca="1" si="5"/>
-        <v>2013</v>
+        <v>2018</v>
       </c>
       <c r="Q381" s="2"/>
     </row>
@@ -20604,7 +20604,7 @@
       </c>
       <c r="P382" s="18">
         <f t="shared" ca="1" si="5"/>
-        <v>2022</v>
+        <v>2017</v>
       </c>
       <c r="Q382" s="2"/>
     </row>
@@ -20656,7 +20656,7 @@
       </c>
       <c r="P383" s="18">
         <f t="shared" ca="1" si="5"/>
-        <v>2022</v>
+        <v>2014</v>
       </c>
       <c r="Q383" s="2"/>
     </row>
@@ -20708,7 +20708,7 @@
       </c>
       <c r="P384" s="18">
         <f t="shared" ca="1" si="5"/>
-        <v>2024</v>
+        <v>2021</v>
       </c>
       <c r="Q384" s="2"/>
     </row>
@@ -20760,7 +20760,7 @@
       </c>
       <c r="P385" s="18">
         <f t="shared" ca="1" si="5"/>
-        <v>2013</v>
+        <v>2021</v>
       </c>
       <c r="Q385" s="2"/>
     </row>
@@ -20812,7 +20812,7 @@
       </c>
       <c r="P386" s="18">
         <f t="shared" ca="1" si="5"/>
-        <v>2020</v>
+        <v>2016</v>
       </c>
       <c r="Q386" s="2"/>
     </row>
@@ -20864,7 +20864,7 @@
       </c>
       <c r="P387" s="18">
         <f t="shared" ref="P387:P450" ca="1" si="6">RANDBETWEEN(2012,2024)</f>
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="Q387" s="2"/>
     </row>
@@ -20916,7 +20916,7 @@
       </c>
       <c r="P388" s="18">
         <f t="shared" ca="1" si="6"/>
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="Q388" s="2"/>
     </row>
@@ -20968,7 +20968,7 @@
       </c>
       <c r="P389" s="18">
         <f t="shared" ca="1" si="6"/>
-        <v>2015</v>
+        <v>2022</v>
       </c>
       <c r="Q389" s="2"/>
     </row>
@@ -21020,7 +21020,7 @@
       </c>
       <c r="P390" s="18">
         <f t="shared" ca="1" si="6"/>
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="Q390" s="2"/>
     </row>
@@ -21072,7 +21072,7 @@
       </c>
       <c r="P391" s="18">
         <f t="shared" ca="1" si="6"/>
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="Q391" s="2"/>
     </row>
@@ -21124,7 +21124,7 @@
       </c>
       <c r="P392" s="18">
         <f t="shared" ca="1" si="6"/>
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="Q392" s="2"/>
     </row>
@@ -21176,7 +21176,7 @@
       </c>
       <c r="P393" s="18">
         <f t="shared" ca="1" si="6"/>
-        <v>2020</v>
+        <v>2013</v>
       </c>
       <c r="Q393" s="2"/>
     </row>
@@ -21228,7 +21228,7 @@
       </c>
       <c r="P394" s="18">
         <f t="shared" ca="1" si="6"/>
-        <v>2013</v>
+        <v>2021</v>
       </c>
       <c r="Q394" s="2"/>
     </row>
@@ -21280,7 +21280,7 @@
       </c>
       <c r="P395" s="18">
         <f t="shared" ca="1" si="6"/>
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="Q395" s="2"/>
     </row>
@@ -21384,7 +21384,7 @@
       </c>
       <c r="P397" s="18">
         <f t="shared" ca="1" si="6"/>
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="Q397" s="2"/>
     </row>
@@ -21488,7 +21488,7 @@
       </c>
       <c r="P399" s="18">
         <f t="shared" ca="1" si="6"/>
-        <v>2015</v>
+        <v>2024</v>
       </c>
       <c r="Q399" s="2"/>
     </row>
@@ -21540,7 +21540,7 @@
       </c>
       <c r="P400" s="18">
         <f t="shared" ca="1" si="6"/>
-        <v>2021</v>
+        <v>2014</v>
       </c>
       <c r="Q400" s="2"/>
     </row>
@@ -21592,7 +21592,7 @@
       </c>
       <c r="P401" s="18">
         <f t="shared" ca="1" si="6"/>
-        <v>2018</v>
+        <v>2022</v>
       </c>
       <c r="Q401" s="2"/>
     </row>
@@ -21644,7 +21644,7 @@
       </c>
       <c r="P402" s="18">
         <f t="shared" ca="1" si="6"/>
-        <v>2015</v>
+        <v>2018</v>
       </c>
       <c r="Q402" s="2"/>
     </row>
@@ -21696,7 +21696,7 @@
       </c>
       <c r="P403" s="18">
         <f t="shared" ca="1" si="6"/>
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="Q403" s="2"/>
     </row>
@@ -21748,7 +21748,7 @@
       </c>
       <c r="P404" s="18">
         <f t="shared" ca="1" si="6"/>
-        <v>2012</v>
+        <v>2016</v>
       </c>
       <c r="Q404" s="2"/>
     </row>
@@ -21800,7 +21800,7 @@
       </c>
       <c r="P405" s="18">
         <f t="shared" ca="1" si="6"/>
-        <v>2023</v>
+        <v>2013</v>
       </c>
       <c r="Q405" s="2"/>
     </row>
@@ -21852,7 +21852,7 @@
       </c>
       <c r="P406" s="18">
         <f t="shared" ca="1" si="6"/>
-        <v>2015</v>
+        <v>2023</v>
       </c>
       <c r="Q406" s="2"/>
     </row>
@@ -21904,7 +21904,7 @@
       </c>
       <c r="P407" s="18">
         <f t="shared" ca="1" si="6"/>
-        <v>2016</v>
+        <v>2019</v>
       </c>
       <c r="Q407" s="2"/>
     </row>
@@ -21956,7 +21956,7 @@
       </c>
       <c r="P408" s="18">
         <f t="shared" ca="1" si="6"/>
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="Q408" s="2"/>
     </row>
@@ -22008,7 +22008,7 @@
       </c>
       <c r="P409" s="18">
         <f t="shared" ca="1" si="6"/>
-        <v>2013</v>
+        <v>2019</v>
       </c>
       <c r="Q409" s="2"/>
     </row>
@@ -22060,7 +22060,7 @@
       </c>
       <c r="P410" s="18">
         <f t="shared" ca="1" si="6"/>
-        <v>2018</v>
+        <v>2021</v>
       </c>
       <c r="Q410" s="2"/>
     </row>
@@ -22164,7 +22164,7 @@
       </c>
       <c r="P412" s="18">
         <f t="shared" ca="1" si="6"/>
-        <v>2020</v>
+        <v>2024</v>
       </c>
       <c r="Q412" s="2"/>
     </row>
@@ -22216,7 +22216,7 @@
       </c>
       <c r="P413" s="18">
         <f t="shared" ca="1" si="6"/>
-        <v>2023</v>
+        <v>2018</v>
       </c>
       <c r="Q413" s="2"/>
     </row>
@@ -22268,7 +22268,7 @@
       </c>
       <c r="P414" s="18">
         <f t="shared" ca="1" si="6"/>
-        <v>2023</v>
+        <v>2020</v>
       </c>
       <c r="Q414" s="2"/>
     </row>
@@ -22320,7 +22320,7 @@
       </c>
       <c r="P415" s="18">
         <f t="shared" ca="1" si="6"/>
-        <v>2023</v>
+        <v>2018</v>
       </c>
       <c r="Q415" s="2"/>
     </row>
@@ -22372,7 +22372,7 @@
       </c>
       <c r="P416" s="18">
         <f t="shared" ca="1" si="6"/>
-        <v>2014</v>
+        <v>2017</v>
       </c>
       <c r="Q416" s="2"/>
     </row>
@@ -22424,7 +22424,7 @@
       </c>
       <c r="P417" s="18">
         <f t="shared" ca="1" si="6"/>
-        <v>2020</v>
+        <v>2023</v>
       </c>
       <c r="Q417" s="2"/>
     </row>
@@ -22476,7 +22476,7 @@
       </c>
       <c r="P418" s="18">
         <f t="shared" ca="1" si="6"/>
-        <v>2020</v>
+        <v>2014</v>
       </c>
       <c r="Q418" s="2"/>
     </row>
@@ -22580,7 +22580,7 @@
       </c>
       <c r="P420" s="18">
         <f t="shared" ca="1" si="6"/>
-        <v>2023</v>
+        <v>2015</v>
       </c>
       <c r="Q420" s="2"/>
     </row>
@@ -22632,7 +22632,7 @@
       </c>
       <c r="P421" s="18">
         <f t="shared" ca="1" si="6"/>
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="Q421" s="2"/>
     </row>
@@ -22684,7 +22684,7 @@
       </c>
       <c r="P422" s="18">
         <f t="shared" ca="1" si="6"/>
-        <v>2020</v>
+        <v>2017</v>
       </c>
       <c r="Q422" s="2"/>
     </row>
@@ -22736,7 +22736,7 @@
       </c>
       <c r="P423" s="18">
         <f t="shared" ca="1" si="6"/>
-        <v>2012</v>
+        <v>2020</v>
       </c>
       <c r="Q423" s="2"/>
     </row>
@@ -22788,7 +22788,7 @@
       </c>
       <c r="P424" s="18">
         <f t="shared" ca="1" si="6"/>
-        <v>2020</v>
+        <v>2014</v>
       </c>
       <c r="Q424" s="2"/>
     </row>
@@ -22840,7 +22840,7 @@
       </c>
       <c r="P425" s="18">
         <f t="shared" ca="1" si="6"/>
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="Q425" s="2"/>
     </row>
@@ -22892,7 +22892,7 @@
       </c>
       <c r="P426" s="18">
         <f t="shared" ca="1" si="6"/>
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="Q426" s="2"/>
     </row>
@@ -22944,7 +22944,7 @@
       </c>
       <c r="P427" s="18">
         <f t="shared" ca="1" si="6"/>
-        <v>2016</v>
+        <v>2021</v>
       </c>
       <c r="Q427" s="2"/>
     </row>
@@ -22996,7 +22996,7 @@
       </c>
       <c r="P428" s="18">
         <f t="shared" ca="1" si="6"/>
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="Q428" s="2"/>
     </row>
@@ -23048,7 +23048,7 @@
       </c>
       <c r="P429" s="18">
         <f t="shared" ca="1" si="6"/>
-        <v>2013</v>
+        <v>2019</v>
       </c>
       <c r="Q429" s="2"/>
     </row>
@@ -23100,7 +23100,7 @@
       </c>
       <c r="P430" s="18">
         <f t="shared" ca="1" si="6"/>
-        <v>2024</v>
+        <v>2012</v>
       </c>
       <c r="Q430" s="2"/>
     </row>
@@ -23152,7 +23152,7 @@
       </c>
       <c r="P431" s="18">
         <f t="shared" ca="1" si="6"/>
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="Q431" s="2"/>
     </row>
@@ -23204,7 +23204,7 @@
       </c>
       <c r="P432" s="18">
         <f t="shared" ca="1" si="6"/>
-        <v>2022</v>
+        <v>2012</v>
       </c>
       <c r="Q432" s="2"/>
     </row>
@@ -23256,7 +23256,7 @@
       </c>
       <c r="P433" s="18">
         <f t="shared" ca="1" si="6"/>
-        <v>2016</v>
+        <v>2021</v>
       </c>
       <c r="Q433" s="2"/>
     </row>
@@ -23308,7 +23308,7 @@
       </c>
       <c r="P434" s="18">
         <f t="shared" ca="1" si="6"/>
-        <v>2018</v>
+        <v>2015</v>
       </c>
       <c r="Q434" s="2"/>
     </row>
@@ -23360,7 +23360,7 @@
       </c>
       <c r="P435" s="18">
         <f t="shared" ca="1" si="6"/>
-        <v>2020</v>
+        <v>2023</v>
       </c>
       <c r="Q435" s="2"/>
     </row>
@@ -23412,7 +23412,7 @@
       </c>
       <c r="P436" s="18">
         <f t="shared" ca="1" si="6"/>
-        <v>2016</v>
+        <v>2013</v>
       </c>
       <c r="Q436" s="2"/>
     </row>
@@ -23464,7 +23464,7 @@
       </c>
       <c r="P437" s="18">
         <f t="shared" ca="1" si="6"/>
-        <v>2024</v>
+        <v>2016</v>
       </c>
       <c r="Q437" s="2"/>
     </row>
@@ -23516,7 +23516,7 @@
       </c>
       <c r="P438" s="18">
         <f t="shared" ca="1" si="6"/>
-        <v>2018</v>
+        <v>2013</v>
       </c>
       <c r="Q438" s="2"/>
     </row>
@@ -23568,7 +23568,7 @@
       </c>
       <c r="P439" s="18">
         <f t="shared" ca="1" si="6"/>
-        <v>2017</v>
+        <v>2022</v>
       </c>
       <c r="Q439" s="2"/>
     </row>
@@ -23620,7 +23620,7 @@
       </c>
       <c r="P440" s="18">
         <f t="shared" ca="1" si="6"/>
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="Q440" s="2"/>
     </row>
@@ -23724,7 +23724,7 @@
       </c>
       <c r="P442" s="18">
         <f t="shared" ca="1" si="6"/>
-        <v>2024</v>
+        <v>2013</v>
       </c>
       <c r="Q442" s="2"/>
     </row>
@@ -23776,7 +23776,7 @@
       </c>
       <c r="P443" s="18">
         <f t="shared" ca="1" si="6"/>
-        <v>2018</v>
+        <v>2024</v>
       </c>
       <c r="Q443" s="2"/>
     </row>
@@ -23828,7 +23828,7 @@
       </c>
       <c r="P444" s="18">
         <f t="shared" ca="1" si="6"/>
-        <v>2017</v>
+        <v>2014</v>
       </c>
       <c r="Q444" s="2"/>
     </row>
@@ -23880,7 +23880,7 @@
       </c>
       <c r="P445" s="18">
         <f t="shared" ca="1" si="6"/>
-        <v>2021</v>
+        <v>2024</v>
       </c>
       <c r="Q445" s="2"/>
     </row>
@@ -23932,7 +23932,7 @@
       </c>
       <c r="P446" s="18">
         <f t="shared" ca="1" si="6"/>
-        <v>2024</v>
+        <v>2014</v>
       </c>
       <c r="Q446" s="2"/>
     </row>
@@ -23984,7 +23984,7 @@
       </c>
       <c r="P447" s="18">
         <f t="shared" ca="1" si="6"/>
-        <v>2020</v>
+        <v>2017</v>
       </c>
       <c r="Q447" s="2"/>
     </row>
@@ -24036,7 +24036,7 @@
       </c>
       <c r="P448" s="18">
         <f t="shared" ca="1" si="6"/>
-        <v>2014</v>
+        <v>2019</v>
       </c>
       <c r="Q448" s="2"/>
     </row>
@@ -24088,7 +24088,7 @@
       </c>
       <c r="P449" s="18">
         <f t="shared" ca="1" si="6"/>
-        <v>2018</v>
+        <v>2024</v>
       </c>
       <c r="Q449" s="2"/>
     </row>
@@ -24140,7 +24140,7 @@
       </c>
       <c r="P450" s="18">
         <f t="shared" ca="1" si="6"/>
-        <v>2013</v>
+        <v>2015</v>
       </c>
       <c r="Q450" s="2"/>
     </row>
@@ -24192,7 +24192,7 @@
       </c>
       <c r="P451" s="18">
         <f t="shared" ref="P451:P514" ca="1" si="7">RANDBETWEEN(2012,2024)</f>
-        <v>2020</v>
+        <v>2017</v>
       </c>
       <c r="Q451" s="2"/>
     </row>
@@ -24244,7 +24244,7 @@
       </c>
       <c r="P452" s="18">
         <f t="shared" ca="1" si="7"/>
-        <v>2019</v>
+        <v>2016</v>
       </c>
       <c r="Q452" s="2"/>
     </row>
@@ -24296,7 +24296,7 @@
       </c>
       <c r="P453" s="18">
         <f t="shared" ca="1" si="7"/>
-        <v>2022</v>
+        <v>2018</v>
       </c>
       <c r="Q453" s="2"/>
     </row>
@@ -24348,7 +24348,7 @@
       </c>
       <c r="P454" s="18">
         <f t="shared" ca="1" si="7"/>
-        <v>2015</v>
+        <v>2017</v>
       </c>
       <c r="Q454" s="2"/>
     </row>
@@ -24400,7 +24400,7 @@
       </c>
       <c r="P455" s="18">
         <f t="shared" ca="1" si="7"/>
-        <v>2014</v>
+        <v>2024</v>
       </c>
       <c r="Q455" s="2"/>
     </row>
@@ -24452,7 +24452,7 @@
       </c>
       <c r="P456" s="18">
         <f t="shared" ca="1" si="7"/>
-        <v>2015</v>
+        <v>2012</v>
       </c>
       <c r="Q456" s="2"/>
     </row>
@@ -24504,7 +24504,7 @@
       </c>
       <c r="P457" s="18">
         <f t="shared" ca="1" si="7"/>
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="Q457" s="2"/>
     </row>
@@ -24556,7 +24556,7 @@
       </c>
       <c r="P458" s="18">
         <f t="shared" ca="1" si="7"/>
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="Q458" s="2"/>
     </row>
@@ -24608,7 +24608,7 @@
       </c>
       <c r="P459" s="18">
         <f t="shared" ca="1" si="7"/>
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="Q459" s="2"/>
     </row>
@@ -24660,7 +24660,7 @@
       </c>
       <c r="P460" s="18">
         <f t="shared" ca="1" si="7"/>
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="Q460" s="2"/>
     </row>
@@ -24712,7 +24712,7 @@
       </c>
       <c r="P461" s="18">
         <f t="shared" ca="1" si="7"/>
-        <v>2017</v>
+        <v>2021</v>
       </c>
       <c r="Q461" s="2"/>
     </row>
@@ -24764,7 +24764,7 @@
       </c>
       <c r="P462" s="18">
         <f t="shared" ca="1" si="7"/>
-        <v>2019</v>
+        <v>2022</v>
       </c>
       <c r="Q462" s="2"/>
     </row>
@@ -24816,7 +24816,7 @@
       </c>
       <c r="P463" s="18">
         <f t="shared" ca="1" si="7"/>
-        <v>2013</v>
+        <v>2019</v>
       </c>
       <c r="Q463" s="2"/>
     </row>
@@ -24868,7 +24868,7 @@
       </c>
       <c r="P464" s="18">
         <f t="shared" ca="1" si="7"/>
-        <v>2012</v>
+        <v>2019</v>
       </c>
       <c r="Q464" s="2"/>
     </row>
@@ -24920,7 +24920,7 @@
       </c>
       <c r="P465" s="18">
         <f t="shared" ca="1" si="7"/>
-        <v>2015</v>
+        <v>2022</v>
       </c>
       <c r="Q465" s="2"/>
     </row>
@@ -24972,7 +24972,7 @@
       </c>
       <c r="P466" s="18">
         <f t="shared" ca="1" si="7"/>
-        <v>2014</v>
+        <v>2019</v>
       </c>
       <c r="Q466" s="2"/>
     </row>
@@ -25024,7 +25024,7 @@
       </c>
       <c r="P467" s="18">
         <f t="shared" ca="1" si="7"/>
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="Q467" s="2"/>
     </row>
@@ -25076,7 +25076,7 @@
       </c>
       <c r="P468" s="18">
         <f t="shared" ca="1" si="7"/>
-        <v>2023</v>
+        <v>2020</v>
       </c>
       <c r="Q468" s="2"/>
     </row>
@@ -25128,7 +25128,7 @@
       </c>
       <c r="P469" s="18">
         <f t="shared" ca="1" si="7"/>
-        <v>2020</v>
+        <v>2015</v>
       </c>
       <c r="Q469" s="2"/>
     </row>
@@ -25180,7 +25180,7 @@
       </c>
       <c r="P470" s="18">
         <f t="shared" ca="1" si="7"/>
-        <v>2012</v>
+        <v>2018</v>
       </c>
       <c r="Q470" s="2"/>
     </row>
@@ -25284,7 +25284,7 @@
       </c>
       <c r="P472" s="18">
         <f t="shared" ca="1" si="7"/>
-        <v>2016</v>
+        <v>2013</v>
       </c>
       <c r="Q472" s="2"/>
     </row>
@@ -25336,7 +25336,7 @@
       </c>
       <c r="P473" s="18">
         <f t="shared" ca="1" si="7"/>
-        <v>2024</v>
+        <v>2012</v>
       </c>
       <c r="Q473" s="2"/>
     </row>
@@ -25388,7 +25388,7 @@
       </c>
       <c r="P474" s="18">
         <f t="shared" ca="1" si="7"/>
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="Q474" s="2"/>
     </row>
@@ -25440,7 +25440,7 @@
       </c>
       <c r="P475" s="18">
         <f t="shared" ca="1" si="7"/>
-        <v>2016</v>
+        <v>2022</v>
       </c>
       <c r="Q475" s="2"/>
     </row>
@@ -25492,7 +25492,7 @@
       </c>
       <c r="P476" s="18">
         <f t="shared" ca="1" si="7"/>
-        <v>2016</v>
+        <v>2013</v>
       </c>
       <c r="Q476" s="2"/>
     </row>
@@ -25544,7 +25544,7 @@
       </c>
       <c r="P477" s="18">
         <f t="shared" ca="1" si="7"/>
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="Q477" s="2"/>
     </row>
@@ -25596,7 +25596,7 @@
       </c>
       <c r="P478" s="18">
         <f t="shared" ca="1" si="7"/>
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="Q478" s="2"/>
     </row>
@@ -25700,7 +25700,7 @@
       </c>
       <c r="P480" s="18">
         <f t="shared" ca="1" si="7"/>
-        <v>2018</v>
+        <v>2024</v>
       </c>
       <c r="Q480" s="2"/>
     </row>
@@ -25752,7 +25752,7 @@
       </c>
       <c r="P481" s="18">
         <f t="shared" ca="1" si="7"/>
-        <v>2024</v>
+        <v>2020</v>
       </c>
       <c r="Q481" s="2"/>
     </row>
@@ -25804,7 +25804,7 @@
       </c>
       <c r="P482" s="18">
         <f t="shared" ca="1" si="7"/>
-        <v>2023</v>
+        <v>2017</v>
       </c>
       <c r="Q482" s="2"/>
     </row>
@@ -25856,7 +25856,7 @@
       </c>
       <c r="P483" s="18">
         <f t="shared" ca="1" si="7"/>
-        <v>2018</v>
+        <v>2015</v>
       </c>
       <c r="Q483" s="2"/>
     </row>
@@ -25908,7 +25908,7 @@
       </c>
       <c r="P484" s="18">
         <f t="shared" ca="1" si="7"/>
-        <v>2019</v>
+        <v>2014</v>
       </c>
       <c r="Q484" s="2"/>
     </row>
@@ -25960,7 +25960,7 @@
       </c>
       <c r="P485" s="18">
         <f t="shared" ca="1" si="7"/>
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="Q485" s="2"/>
     </row>
@@ -26012,7 +26012,7 @@
       </c>
       <c r="P486" s="18">
         <f t="shared" ca="1" si="7"/>
-        <v>2014</v>
+        <v>2018</v>
       </c>
       <c r="Q486" s="2"/>
     </row>
@@ -26064,7 +26064,7 @@
       </c>
       <c r="P487" s="18">
         <f t="shared" ca="1" si="7"/>
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="Q487" s="2"/>
     </row>
@@ -26168,7 +26168,7 @@
       </c>
       <c r="P489" s="18">
         <f t="shared" ca="1" si="7"/>
-        <v>2014</v>
+        <v>2019</v>
       </c>
       <c r="Q489" s="2"/>
     </row>
@@ -26272,7 +26272,7 @@
       </c>
       <c r="P491" s="18">
         <f t="shared" ca="1" si="7"/>
-        <v>2017</v>
+        <v>2013</v>
       </c>
       <c r="Q491" s="2"/>
     </row>
@@ -26376,7 +26376,7 @@
       </c>
       <c r="P493" s="18">
         <f t="shared" ca="1" si="7"/>
-        <v>2018</v>
+        <v>2013</v>
       </c>
       <c r="Q493" s="2"/>
     </row>
@@ -26428,7 +26428,7 @@
       </c>
       <c r="P494" s="18">
         <f t="shared" ca="1" si="7"/>
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="Q494" s="2"/>
     </row>
@@ -26480,7 +26480,7 @@
       </c>
       <c r="P495" s="18">
         <f t="shared" ca="1" si="7"/>
-        <v>2020</v>
+        <v>2017</v>
       </c>
       <c r="Q495" s="2"/>
     </row>
@@ -26532,7 +26532,7 @@
       </c>
       <c r="P496" s="18">
         <f t="shared" ca="1" si="7"/>
-        <v>2021</v>
+        <v>2016</v>
       </c>
       <c r="Q496" s="2"/>
     </row>
@@ -26636,7 +26636,7 @@
       </c>
       <c r="P498" s="18">
         <f t="shared" ca="1" si="7"/>
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="Q498" s="2"/>
     </row>
@@ -26688,7 +26688,7 @@
       </c>
       <c r="P499" s="18">
         <f t="shared" ca="1" si="7"/>
-        <v>2013</v>
+        <v>2023</v>
       </c>
       <c r="Q499" s="2"/>
     </row>
@@ -26740,7 +26740,7 @@
       </c>
       <c r="P500" s="18">
         <f t="shared" ca="1" si="7"/>
-        <v>2019</v>
+        <v>2016</v>
       </c>
       <c r="Q500" s="2"/>
     </row>
@@ -26792,7 +26792,7 @@
       </c>
       <c r="P501" s="18">
         <f t="shared" ca="1" si="7"/>
-        <v>2021</v>
+        <v>2017</v>
       </c>
       <c r="Q501" s="2"/>
     </row>
@@ -26844,7 +26844,7 @@
       </c>
       <c r="P502" s="18">
         <f t="shared" ca="1" si="7"/>
-        <v>2019</v>
+        <v>2022</v>
       </c>
       <c r="Q502" s="2"/>
     </row>
@@ -26896,7 +26896,7 @@
       </c>
       <c r="P503" s="18">
         <f t="shared" ca="1" si="7"/>
-        <v>2012</v>
+        <v>2022</v>
       </c>
       <c r="Q503" s="2"/>
     </row>
@@ -26948,7 +26948,7 @@
       </c>
       <c r="P504" s="18">
         <f t="shared" ca="1" si="7"/>
-        <v>2017</v>
+        <v>2013</v>
       </c>
       <c r="Q504" s="2"/>
     </row>
@@ -27052,7 +27052,7 @@
       </c>
       <c r="P506" s="18">
         <f t="shared" ca="1" si="7"/>
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="Q506" s="2"/>
     </row>
@@ -27104,7 +27104,7 @@
       </c>
       <c r="P507" s="18">
         <f t="shared" ca="1" si="7"/>
-        <v>2024</v>
+        <v>2020</v>
       </c>
       <c r="Q507" s="2"/>
     </row>
@@ -27156,7 +27156,7 @@
       </c>
       <c r="P508" s="18">
         <f t="shared" ca="1" si="7"/>
-        <v>2022</v>
+        <v>2020</v>
       </c>
       <c r="Q508" s="2"/>
     </row>
@@ -27208,7 +27208,7 @@
       </c>
       <c r="P509" s="18">
         <f t="shared" ca="1" si="7"/>
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="Q509" s="2"/>
     </row>
@@ -27260,7 +27260,7 @@
       </c>
       <c r="P510" s="18">
         <f t="shared" ca="1" si="7"/>
-        <v>2014</v>
+        <v>2023</v>
       </c>
       <c r="Q510" s="2"/>
     </row>
@@ -27364,7 +27364,7 @@
       </c>
       <c r="P512" s="18">
         <f t="shared" ca="1" si="7"/>
-        <v>2012</v>
+        <v>2016</v>
       </c>
       <c r="Q512" s="2"/>
     </row>
@@ -27416,7 +27416,7 @@
       </c>
       <c r="P513" s="18">
         <f t="shared" ca="1" si="7"/>
-        <v>2022</v>
+        <v>2015</v>
       </c>
       <c r="Q513" s="2"/>
     </row>
@@ -27468,7 +27468,7 @@
       </c>
       <c r="P514" s="18">
         <f t="shared" ca="1" si="7"/>
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="Q514" s="2"/>
     </row>
@@ -27520,7 +27520,7 @@
       </c>
       <c r="P515" s="18">
         <f t="shared" ref="P515:P578" ca="1" si="8">RANDBETWEEN(2012,2024)</f>
-        <v>2024</v>
+        <v>2017</v>
       </c>
       <c r="Q515" s="2"/>
     </row>
@@ -27572,7 +27572,7 @@
       </c>
       <c r="P516" s="18">
         <f t="shared" ca="1" si="8"/>
-        <v>2012</v>
+        <v>2016</v>
       </c>
       <c r="Q516" s="2"/>
     </row>
@@ -27624,7 +27624,7 @@
       </c>
       <c r="P517" s="18">
         <f t="shared" ca="1" si="8"/>
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="Q517" s="2"/>
     </row>
@@ -27676,7 +27676,7 @@
       </c>
       <c r="P518" s="18">
         <f t="shared" ca="1" si="8"/>
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="Q518" s="2"/>
     </row>
@@ -27728,7 +27728,7 @@
       </c>
       <c r="P519" s="18">
         <f t="shared" ca="1" si="8"/>
-        <v>2012</v>
+        <v>2014</v>
       </c>
       <c r="Q519" s="2"/>
     </row>
@@ -27780,7 +27780,7 @@
       </c>
       <c r="P520" s="18">
         <f t="shared" ca="1" si="8"/>
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="Q520" s="2"/>
     </row>
@@ -27832,7 +27832,7 @@
       </c>
       <c r="P521" s="18">
         <f t="shared" ca="1" si="8"/>
-        <v>2019</v>
+        <v>2012</v>
       </c>
       <c r="Q521" s="2"/>
     </row>
@@ -27884,7 +27884,7 @@
       </c>
       <c r="P522" s="18">
         <f t="shared" ca="1" si="8"/>
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="Q522" s="2"/>
     </row>
@@ -27936,7 +27936,7 @@
       </c>
       <c r="P523" s="18">
         <f t="shared" ca="1" si="8"/>
-        <v>2013</v>
+        <v>2017</v>
       </c>
       <c r="Q523" s="2"/>
     </row>
@@ -27988,7 +27988,7 @@
       </c>
       <c r="P524" s="18">
         <f t="shared" ca="1" si="8"/>
-        <v>2015</v>
+        <v>2012</v>
       </c>
       <c r="Q524" s="2"/>
     </row>
@@ -28040,7 +28040,7 @@
       </c>
       <c r="P525" s="18">
         <f t="shared" ca="1" si="8"/>
-        <v>2018</v>
+        <v>2022</v>
       </c>
       <c r="Q525" s="2"/>
     </row>
@@ -28092,7 +28092,7 @@
       </c>
       <c r="P526" s="18">
         <f t="shared" ca="1" si="8"/>
-        <v>2015</v>
+        <v>2024</v>
       </c>
       <c r="Q526" s="2"/>
     </row>
@@ -28144,7 +28144,7 @@
       </c>
       <c r="P527" s="18">
         <f t="shared" ca="1" si="8"/>
-        <v>2019</v>
+        <v>2022</v>
       </c>
       <c r="Q527" s="2"/>
     </row>
@@ -28248,7 +28248,7 @@
       </c>
       <c r="P529" s="18">
         <f t="shared" ca="1" si="8"/>
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="Q529" s="2"/>
     </row>
@@ -28300,7 +28300,7 @@
       </c>
       <c r="P530" s="18">
         <f t="shared" ca="1" si="8"/>
-        <v>2015</v>
+        <v>2017</v>
       </c>
       <c r="Q530" s="2"/>
     </row>
@@ -28352,7 +28352,7 @@
       </c>
       <c r="P531" s="18">
         <f t="shared" ca="1" si="8"/>
-        <v>2015</v>
+        <v>2019</v>
       </c>
       <c r="Q531" s="2"/>
     </row>
@@ -28404,7 +28404,7 @@
       </c>
       <c r="P532" s="18">
         <f t="shared" ca="1" si="8"/>
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="Q532" s="2"/>
     </row>
@@ -28456,7 +28456,7 @@
       </c>
       <c r="P533" s="18">
         <f t="shared" ca="1" si="8"/>
-        <v>2017</v>
+        <v>2020</v>
       </c>
       <c r="Q533" s="2"/>
     </row>
@@ -28508,7 +28508,7 @@
       </c>
       <c r="P534" s="18">
         <f t="shared" ca="1" si="8"/>
-        <v>2022</v>
+        <v>2015</v>
       </c>
       <c r="Q534" s="2"/>
     </row>
@@ -28560,7 +28560,7 @@
       </c>
       <c r="P535" s="18">
         <f t="shared" ca="1" si="8"/>
-        <v>2023</v>
+        <v>2020</v>
       </c>
       <c r="Q535" s="2"/>
     </row>
@@ -28612,7 +28612,7 @@
       </c>
       <c r="P536" s="18">
         <f t="shared" ca="1" si="8"/>
-        <v>2012</v>
+        <v>2017</v>
       </c>
       <c r="Q536" s="2"/>
     </row>
@@ -28664,7 +28664,7 @@
       </c>
       <c r="P537" s="18">
         <f t="shared" ca="1" si="8"/>
-        <v>2015</v>
+        <v>2024</v>
       </c>
       <c r="Q537" s="2"/>
     </row>
@@ -28768,7 +28768,7 @@
       </c>
       <c r="P539" s="18">
         <f t="shared" ca="1" si="8"/>
-        <v>2017</v>
+        <v>2013</v>
       </c>
       <c r="Q539" s="2"/>
     </row>
@@ -28820,7 +28820,7 @@
       </c>
       <c r="P540" s="18">
         <f t="shared" ca="1" si="8"/>
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="Q540" s="2"/>
     </row>
@@ -28872,7 +28872,7 @@
       </c>
       <c r="P541" s="18">
         <f t="shared" ca="1" si="8"/>
-        <v>2024</v>
+        <v>2016</v>
       </c>
       <c r="Q541" s="2"/>
     </row>
@@ -28924,7 +28924,7 @@
       </c>
       <c r="P542" s="18">
         <f t="shared" ca="1" si="8"/>
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="Q542" s="2"/>
     </row>
@@ -29028,7 +29028,7 @@
       </c>
       <c r="P544" s="18">
         <f t="shared" ca="1" si="8"/>
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="Q544" s="2"/>
     </row>
@@ -29080,7 +29080,7 @@
       </c>
       <c r="P545" s="18">
         <f t="shared" ca="1" si="8"/>
-        <v>2013</v>
+        <v>2015</v>
       </c>
       <c r="Q545" s="2"/>
     </row>
@@ -29132,7 +29132,7 @@
       </c>
       <c r="P546" s="18">
         <f t="shared" ca="1" si="8"/>
-        <v>2022</v>
+        <v>2024</v>
       </c>
       <c r="Q546" s="2"/>
     </row>
@@ -29184,7 +29184,7 @@
       </c>
       <c r="P547" s="18">
         <f t="shared" ca="1" si="8"/>
-        <v>2019</v>
+        <v>2015</v>
       </c>
       <c r="Q547" s="2"/>
     </row>
@@ -29236,7 +29236,7 @@
       </c>
       <c r="P548" s="18">
         <f t="shared" ca="1" si="8"/>
-        <v>2019</v>
+        <v>2023</v>
       </c>
       <c r="Q548" s="2"/>
     </row>
@@ -29288,7 +29288,7 @@
       </c>
       <c r="P549" s="18">
         <f t="shared" ca="1" si="8"/>
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="Q549" s="2"/>
     </row>
@@ -29340,7 +29340,7 @@
       </c>
       <c r="P550" s="18">
         <f t="shared" ca="1" si="8"/>
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="Q550" s="2"/>
     </row>
@@ -29392,7 +29392,7 @@
       </c>
       <c r="P551" s="18">
         <f t="shared" ca="1" si="8"/>
-        <v>2012</v>
+        <v>2022</v>
       </c>
       <c r="Q551" s="2"/>
     </row>
@@ -29444,7 +29444,7 @@
       </c>
       <c r="P552" s="18">
         <f t="shared" ca="1" si="8"/>
-        <v>2024</v>
+        <v>2015</v>
       </c>
       <c r="Q552" s="2"/>
     </row>
@@ -29496,7 +29496,7 @@
       </c>
       <c r="P553" s="18">
         <f t="shared" ca="1" si="8"/>
-        <v>2022</v>
+        <v>2019</v>
       </c>
       <c r="Q553" s="2"/>
     </row>
@@ -29548,7 +29548,7 @@
       </c>
       <c r="P554" s="18">
         <f t="shared" ca="1" si="8"/>
-        <v>2017</v>
+        <v>2024</v>
       </c>
       <c r="Q554" s="2"/>
     </row>
@@ -29600,7 +29600,7 @@
       </c>
       <c r="P555" s="18">
         <f t="shared" ca="1" si="8"/>
-        <v>2013</v>
+        <v>2016</v>
       </c>
       <c r="Q555" s="2"/>
     </row>
@@ -29652,7 +29652,7 @@
       </c>
       <c r="P556" s="18">
         <f t="shared" ca="1" si="8"/>
-        <v>2020</v>
+        <v>2015</v>
       </c>
       <c r="Q556" s="2"/>
     </row>
@@ -29704,7 +29704,7 @@
       </c>
       <c r="P557" s="18">
         <f t="shared" ca="1" si="8"/>
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="Q557" s="2"/>
     </row>
@@ -29756,7 +29756,7 @@
       </c>
       <c r="P558" s="18">
         <f t="shared" ca="1" si="8"/>
-        <v>2021</v>
+        <v>2024</v>
       </c>
       <c r="Q558" s="2"/>
     </row>
@@ -29808,7 +29808,7 @@
       </c>
       <c r="P559" s="18">
         <f t="shared" ca="1" si="8"/>
-        <v>2024</v>
+        <v>2018</v>
       </c>
       <c r="Q559" s="2"/>
     </row>
@@ -29860,7 +29860,7 @@
       </c>
       <c r="P560" s="18">
         <f t="shared" ca="1" si="8"/>
-        <v>2024</v>
+        <v>2019</v>
       </c>
       <c r="Q560" s="2"/>
     </row>
@@ -29912,7 +29912,7 @@
       </c>
       <c r="P561" s="18">
         <f t="shared" ca="1" si="8"/>
-        <v>2012</v>
+        <v>2014</v>
       </c>
       <c r="Q561" s="2"/>
     </row>
@@ -29964,7 +29964,7 @@
       </c>
       <c r="P562" s="18">
         <f t="shared" ca="1" si="8"/>
-        <v>2016</v>
+        <v>2021</v>
       </c>
       <c r="Q562" s="2"/>
     </row>
@@ -30016,7 +30016,7 @@
       </c>
       <c r="P563" s="18">
         <f t="shared" ca="1" si="8"/>
-        <v>2024</v>
+        <v>2012</v>
       </c>
       <c r="Q563" s="2"/>
     </row>
@@ -30068,7 +30068,7 @@
       </c>
       <c r="P564" s="18">
         <f t="shared" ca="1" si="8"/>
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="Q564" s="2"/>
     </row>
@@ -30120,7 +30120,7 @@
       </c>
       <c r="P565" s="18">
         <f t="shared" ca="1" si="8"/>
-        <v>2022</v>
+        <v>2018</v>
       </c>
       <c r="Q565" s="2"/>
     </row>
@@ -30172,7 +30172,7 @@
       </c>
       <c r="P566" s="18">
         <f t="shared" ca="1" si="8"/>
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="Q566" s="2"/>
     </row>
@@ -30224,7 +30224,7 @@
       </c>
       <c r="P567" s="18">
         <f t="shared" ca="1" si="8"/>
-        <v>2022</v>
+        <v>2019</v>
       </c>
       <c r="Q567" s="2"/>
     </row>
@@ -30276,7 +30276,7 @@
       </c>
       <c r="P568" s="18">
         <f t="shared" ca="1" si="8"/>
-        <v>2012</v>
+        <v>2017</v>
       </c>
       <c r="Q568" s="2"/>
     </row>
@@ -30328,7 +30328,7 @@
       </c>
       <c r="P569" s="18">
         <f t="shared" ca="1" si="8"/>
-        <v>2019</v>
+        <v>2012</v>
       </c>
       <c r="Q569" s="2"/>
     </row>
@@ -30380,7 +30380,7 @@
       </c>
       <c r="P570" s="18">
         <f t="shared" ca="1" si="8"/>
-        <v>2019</v>
+        <v>2016</v>
       </c>
       <c r="Q570" s="2"/>
     </row>
@@ -30432,7 +30432,7 @@
       </c>
       <c r="P571" s="18">
         <f t="shared" ca="1" si="8"/>
-        <v>2014</v>
+        <v>2017</v>
       </c>
       <c r="Q571" s="2"/>
     </row>
@@ -30484,7 +30484,7 @@
       </c>
       <c r="P572" s="18">
         <f t="shared" ca="1" si="8"/>
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="Q572" s="2"/>
     </row>
@@ -30588,7 +30588,7 @@
       </c>
       <c r="P574" s="18">
         <f t="shared" ca="1" si="8"/>
-        <v>2020</v>
+        <v>2015</v>
       </c>
       <c r="Q574" s="2"/>
     </row>
@@ -30640,7 +30640,7 @@
       </c>
       <c r="P575" s="18">
         <f t="shared" ca="1" si="8"/>
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="Q575" s="2"/>
     </row>
@@ -30692,7 +30692,7 @@
       </c>
       <c r="P576" s="18">
         <f t="shared" ca="1" si="8"/>
-        <v>2023</v>
+        <v>2015</v>
       </c>
       <c r="Q576" s="2"/>
     </row>
@@ -30744,7 +30744,7 @@
       </c>
       <c r="P577" s="18">
         <f t="shared" ca="1" si="8"/>
-        <v>2016</v>
+        <v>2021</v>
       </c>
       <c r="Q577" s="2"/>
     </row>
@@ -30796,7 +30796,7 @@
       </c>
       <c r="P578" s="18">
         <f t="shared" ca="1" si="8"/>
-        <v>2024</v>
+        <v>2022</v>
       </c>
       <c r="Q578" s="2"/>
     </row>
@@ -30848,7 +30848,7 @@
       </c>
       <c r="P579" s="18">
         <f t="shared" ref="P579:P642" ca="1" si="9">RANDBETWEEN(2012,2024)</f>
-        <v>2022</v>
+        <v>2024</v>
       </c>
       <c r="Q579" s="2"/>
     </row>
@@ -30900,7 +30900,7 @@
       </c>
       <c r="P580" s="18">
         <f t="shared" ca="1" si="9"/>
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="Q580" s="2"/>
     </row>
@@ -30952,7 +30952,7 @@
       </c>
       <c r="P581" s="18">
         <f t="shared" ca="1" si="9"/>
-        <v>2024</v>
+        <v>2018</v>
       </c>
       <c r="Q581" s="2"/>
     </row>
@@ -31004,7 +31004,7 @@
       </c>
       <c r="P582" s="18">
         <f t="shared" ca="1" si="9"/>
-        <v>2013</v>
+        <v>2021</v>
       </c>
       <c r="Q582" s="2"/>
     </row>
@@ -31056,7 +31056,7 @@
       </c>
       <c r="P583" s="18">
         <f t="shared" ca="1" si="9"/>
-        <v>2021</v>
+        <v>2012</v>
       </c>
       <c r="Q583" s="2"/>
     </row>
@@ -31108,7 +31108,7 @@
       </c>
       <c r="P584" s="18">
         <f t="shared" ca="1" si="9"/>
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="Q584" s="2"/>
     </row>
@@ -31160,7 +31160,7 @@
       </c>
       <c r="P585" s="18">
         <f t="shared" ca="1" si="9"/>
-        <v>2012</v>
+        <v>2021</v>
       </c>
       <c r="Q585" s="2"/>
     </row>
@@ -31212,7 +31212,7 @@
       </c>
       <c r="P586" s="18">
         <f t="shared" ca="1" si="9"/>
-        <v>2015</v>
+        <v>2021</v>
       </c>
       <c r="Q586" s="2"/>
     </row>
@@ -31264,7 +31264,7 @@
       </c>
       <c r="P587" s="18">
         <f t="shared" ca="1" si="9"/>
-        <v>2017</v>
+        <v>2021</v>
       </c>
       <c r="Q587" s="2"/>
     </row>
@@ -31316,7 +31316,7 @@
       </c>
       <c r="P588" s="18">
         <f t="shared" ca="1" si="9"/>
-        <v>2017</v>
+        <v>2014</v>
       </c>
       <c r="Q588" s="2"/>
     </row>
@@ -31368,7 +31368,7 @@
       </c>
       <c r="P589" s="18">
         <f t="shared" ca="1" si="9"/>
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="Q589" s="2"/>
     </row>
@@ -31420,7 +31420,7 @@
       </c>
       <c r="P590" s="18">
         <f t="shared" ca="1" si="9"/>
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="Q590" s="2"/>
     </row>
@@ -31472,7 +31472,7 @@
       </c>
       <c r="P591" s="18">
         <f t="shared" ca="1" si="9"/>
-        <v>2014</v>
+        <v>2020</v>
       </c>
       <c r="Q591" s="2"/>
     </row>
@@ -31524,7 +31524,7 @@
       </c>
       <c r="P592" s="18">
         <f t="shared" ca="1" si="9"/>
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="Q592" s="2"/>
     </row>
@@ -31576,7 +31576,7 @@
       </c>
       <c r="P593" s="18">
         <f t="shared" ca="1" si="9"/>
-        <v>2020</v>
+        <v>2024</v>
       </c>
       <c r="Q593" s="2"/>
     </row>
@@ -31628,7 +31628,7 @@
       </c>
       <c r="P594" s="18">
         <f t="shared" ca="1" si="9"/>
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="Q594" s="2"/>
     </row>
@@ -31680,7 +31680,7 @@
       </c>
       <c r="P595" s="18">
         <f t="shared" ca="1" si="9"/>
-        <v>2019</v>
+        <v>2013</v>
       </c>
       <c r="Q595" s="2"/>
     </row>
@@ -31732,7 +31732,7 @@
       </c>
       <c r="P596" s="18">
         <f t="shared" ca="1" si="9"/>
-        <v>2022</v>
+        <v>2018</v>
       </c>
       <c r="Q596" s="2"/>
     </row>
@@ -31784,7 +31784,7 @@
       </c>
       <c r="P597" s="18">
         <f t="shared" ca="1" si="9"/>
-        <v>2024</v>
+        <v>2022</v>
       </c>
       <c r="Q597" s="2"/>
     </row>
@@ -31836,7 +31836,7 @@
       </c>
       <c r="P598" s="18">
         <f t="shared" ca="1" si="9"/>
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="Q598" s="2"/>
     </row>
@@ -31888,7 +31888,7 @@
       </c>
       <c r="P599" s="18">
         <f t="shared" ca="1" si="9"/>
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="Q599" s="2"/>
     </row>
@@ -31940,7 +31940,7 @@
       </c>
       <c r="P600" s="18">
         <f t="shared" ca="1" si="9"/>
-        <v>2012</v>
+        <v>2019</v>
       </c>
       <c r="Q600" s="2"/>
     </row>
@@ -31992,7 +31992,7 @@
       </c>
       <c r="P601" s="18">
         <f t="shared" ca="1" si="9"/>
-        <v>2024</v>
+        <v>2015</v>
       </c>
       <c r="Q601" s="2"/>
     </row>
@@ -32044,7 +32044,7 @@
       </c>
       <c r="P602" s="18">
         <f t="shared" ca="1" si="9"/>
-        <v>2021</v>
+        <v>2018</v>
       </c>
       <c r="Q602" s="2"/>
     </row>
@@ -32096,7 +32096,7 @@
       </c>
       <c r="P603" s="18">
         <f t="shared" ca="1" si="9"/>
-        <v>2017</v>
+        <v>2024</v>
       </c>
       <c r="Q603" s="2"/>
     </row>
@@ -32148,7 +32148,7 @@
       </c>
       <c r="P604" s="18">
         <f t="shared" ca="1" si="9"/>
-        <v>2017</v>
+        <v>2012</v>
       </c>
       <c r="Q604" s="2"/>
     </row>
@@ -32200,7 +32200,7 @@
       </c>
       <c r="P605" s="18">
         <f t="shared" ca="1" si="9"/>
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="Q605" s="2"/>
     </row>
@@ -32252,7 +32252,7 @@
       </c>
       <c r="P606" s="18">
         <f t="shared" ca="1" si="9"/>
-        <v>2012</v>
+        <v>2015</v>
       </c>
       <c r="Q606" s="2"/>
     </row>
@@ -32304,7 +32304,7 @@
       </c>
       <c r="P607" s="18">
         <f t="shared" ca="1" si="9"/>
-        <v>2014</v>
+        <v>2023</v>
       </c>
       <c r="Q607" s="2"/>
     </row>
@@ -32356,7 +32356,7 @@
       </c>
       <c r="P608" s="18">
         <f t="shared" ca="1" si="9"/>
-        <v>2012</v>
+        <v>2019</v>
       </c>
       <c r="Q608" s="2"/>
     </row>
@@ -32408,7 +32408,7 @@
       </c>
       <c r="P609" s="18">
         <f t="shared" ca="1" si="9"/>
-        <v>2015</v>
+        <v>2020</v>
       </c>
       <c r="Q609" s="2"/>
     </row>
@@ -32460,7 +32460,7 @@
       </c>
       <c r="P610" s="18">
         <f t="shared" ca="1" si="9"/>
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="Q610" s="2"/>
     </row>
@@ -32512,7 +32512,7 @@
       </c>
       <c r="P611" s="18">
         <f t="shared" ca="1" si="9"/>
-        <v>2014</v>
+        <v>2023</v>
       </c>
       <c r="Q611" s="2"/>
     </row>
@@ -32564,7 +32564,7 @@
       </c>
       <c r="P612" s="18">
         <f t="shared" ca="1" si="9"/>
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="Q612" s="2"/>
     </row>
@@ -32616,7 +32616,7 @@
       </c>
       <c r="P613" s="18">
         <f t="shared" ca="1" si="9"/>
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="Q613" s="2"/>
     </row>
@@ -32668,7 +32668,7 @@
       </c>
       <c r="P614" s="18">
         <f t="shared" ca="1" si="9"/>
-        <v>2020</v>
+        <v>2023</v>
       </c>
       <c r="Q614" s="2"/>
     </row>
@@ -32720,7 +32720,7 @@
       </c>
       <c r="P615" s="18">
         <f t="shared" ca="1" si="9"/>
-        <v>2022</v>
+        <v>2024</v>
       </c>
       <c r="Q615" s="2"/>
     </row>
@@ -32772,7 +32772,7 @@
       </c>
       <c r="P616" s="18">
         <f t="shared" ca="1" si="9"/>
-        <v>2014</v>
+        <v>2021</v>
       </c>
       <c r="Q616" s="2"/>
     </row>
@@ -32824,7 +32824,7 @@
       </c>
       <c r="P617" s="18">
         <f t="shared" ca="1" si="9"/>
-        <v>2020</v>
+        <v>2023</v>
       </c>
       <c r="Q617" s="2"/>
     </row>
@@ -32876,7 +32876,7 @@
       </c>
       <c r="P618" s="18">
         <f t="shared" ca="1" si="9"/>
-        <v>2012</v>
+        <v>2024</v>
       </c>
       <c r="Q618" s="2"/>
     </row>
@@ -32928,7 +32928,7 @@
       </c>
       <c r="P619" s="18">
         <f t="shared" ca="1" si="9"/>
-        <v>2019</v>
+        <v>2022</v>
       </c>
       <c r="Q619" s="2"/>
     </row>
@@ -32980,7 +32980,7 @@
       </c>
       <c r="P620" s="18">
         <f t="shared" ca="1" si="9"/>
-        <v>2024</v>
+        <v>2013</v>
       </c>
       <c r="Q620" s="2"/>
     </row>
@@ -33032,7 +33032,7 @@
       </c>
       <c r="P621" s="18">
         <f t="shared" ca="1" si="9"/>
-        <v>2012</v>
+        <v>2018</v>
       </c>
       <c r="Q621" s="2"/>
     </row>
@@ -33084,7 +33084,7 @@
       </c>
       <c r="P622" s="18">
         <f t="shared" ca="1" si="9"/>
-        <v>2017</v>
+        <v>2022</v>
       </c>
       <c r="Q622" s="2"/>
     </row>
@@ -33188,7 +33188,7 @@
       </c>
       <c r="P624" s="18">
         <f t="shared" ca="1" si="9"/>
-        <v>2021</v>
+        <v>2012</v>
       </c>
       <c r="Q624" s="2"/>
     </row>
@@ -33240,7 +33240,7 @@
       </c>
       <c r="P625" s="18">
         <f t="shared" ca="1" si="9"/>
-        <v>2017</v>
+        <v>2021</v>
       </c>
       <c r="Q625" s="2"/>
     </row>
@@ -33292,7 +33292,7 @@
       </c>
       <c r="P626" s="18">
         <f t="shared" ca="1" si="9"/>
-        <v>2023</v>
+        <v>2012</v>
       </c>
       <c r="Q626" s="2"/>
     </row>
@@ -33344,7 +33344,7 @@
       </c>
       <c r="P627" s="18">
         <f t="shared" ca="1" si="9"/>
-        <v>2012</v>
+        <v>2020</v>
       </c>
       <c r="Q627" s="2"/>
     </row>
@@ -33396,7 +33396,7 @@
       </c>
       <c r="P628" s="18">
         <f t="shared" ca="1" si="9"/>
-        <v>2013</v>
+        <v>2020</v>
       </c>
       <c r="Q628" s="2"/>
     </row>
@@ -33448,7 +33448,7 @@
       </c>
       <c r="P629" s="18">
         <f t="shared" ca="1" si="9"/>
-        <v>2022</v>
+        <v>2024</v>
       </c>
       <c r="Q629" s="2"/>
     </row>
@@ -33500,7 +33500,7 @@
       </c>
       <c r="P630" s="18">
         <f t="shared" ca="1" si="9"/>
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="Q630" s="2"/>
     </row>
@@ -33552,7 +33552,7 @@
       </c>
       <c r="P631" s="18">
         <f t="shared" ca="1" si="9"/>
-        <v>2022</v>
+        <v>2020</v>
       </c>
       <c r="Q631" s="2"/>
     </row>
@@ -33604,7 +33604,7 @@
       </c>
       <c r="P632" s="18">
         <f t="shared" ca="1" si="9"/>
-        <v>2014</v>
+        <v>2020</v>
       </c>
       <c r="Q632" s="2"/>
     </row>
@@ -33656,7 +33656,7 @@
       </c>
       <c r="P633" s="18">
         <f t="shared" ca="1" si="9"/>
-        <v>2020</v>
+        <v>2024</v>
       </c>
       <c r="Q633" s="2"/>
     </row>
@@ -33708,7 +33708,7 @@
       </c>
       <c r="P634" s="18">
         <f t="shared" ca="1" si="9"/>
-        <v>2017</v>
+        <v>2014</v>
       </c>
       <c r="Q634" s="2"/>
     </row>
@@ -33760,7 +33760,7 @@
       </c>
       <c r="P635" s="18">
         <f t="shared" ca="1" si="9"/>
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="Q635" s="2"/>
     </row>
@@ -33812,7 +33812,7 @@
       </c>
       <c r="P636" s="18">
         <f t="shared" ca="1" si="9"/>
-        <v>2018</v>
+        <v>2023</v>
       </c>
       <c r="Q636" s="2"/>
     </row>
@@ -33864,7 +33864,7 @@
       </c>
       <c r="P637" s="18">
         <f t="shared" ca="1" si="9"/>
-        <v>2023</v>
+        <v>2019</v>
       </c>
       <c r="Q637" s="2"/>
     </row>
@@ -33916,7 +33916,7 @@
       </c>
       <c r="P638" s="18">
         <f t="shared" ca="1" si="9"/>
-        <v>2020</v>
+        <v>2017</v>
       </c>
       <c r="Q638" s="2"/>
     </row>
@@ -33968,7 +33968,7 @@
       </c>
       <c r="P639" s="18">
         <f t="shared" ca="1" si="9"/>
-        <v>2014</v>
+        <v>2020</v>
       </c>
       <c r="Q639" s="2"/>
     </row>
@@ -34020,7 +34020,7 @@
       </c>
       <c r="P640" s="18">
         <f t="shared" ca="1" si="9"/>
-        <v>2012</v>
+        <v>2018</v>
       </c>
       <c r="Q640" s="2"/>
     </row>
@@ -34072,7 +34072,7 @@
       </c>
       <c r="P641" s="18">
         <f t="shared" ca="1" si="9"/>
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="Q641" s="2"/>
     </row>
@@ -34124,7 +34124,7 @@
       </c>
       <c r="P642" s="18">
         <f t="shared" ca="1" si="9"/>
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="Q642" s="2"/>
     </row>
@@ -34176,7 +34176,7 @@
       </c>
       <c r="P643" s="18">
         <f t="shared" ref="P643:P701" ca="1" si="10">RANDBETWEEN(2012,2024)</f>
-        <v>2014</v>
+        <v>2017</v>
       </c>
       <c r="Q643" s="2"/>
     </row>
@@ -34228,7 +34228,7 @@
       </c>
       <c r="P644" s="18">
         <f t="shared" ca="1" si="10"/>
-        <v>2019</v>
+        <v>2014</v>
       </c>
       <c r="Q644" s="2"/>
     </row>
@@ -34280,7 +34280,7 @@
       </c>
       <c r="P645" s="18">
         <f t="shared" ca="1" si="10"/>
-        <v>2022</v>
+        <v>2013</v>
       </c>
       <c r="Q645" s="2"/>
     </row>
@@ -34332,7 +34332,7 @@
       </c>
       <c r="P646" s="18">
         <f t="shared" ca="1" si="10"/>
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="Q646" s="2"/>
     </row>
@@ -34384,7 +34384,7 @@
       </c>
       <c r="P647" s="18">
         <f t="shared" ca="1" si="10"/>
-        <v>2022</v>
+        <v>2024</v>
       </c>
       <c r="Q647" s="2"/>
     </row>
@@ -34436,7 +34436,7 @@
       </c>
       <c r="P648" s="18">
         <f t="shared" ca="1" si="10"/>
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="Q648" s="2"/>
     </row>
@@ -34488,7 +34488,7 @@
       </c>
       <c r="P649" s="18">
         <f t="shared" ca="1" si="10"/>
-        <v>2023</v>
+        <v>2019</v>
       </c>
       <c r="Q649" s="2"/>
     </row>
@@ -34540,7 +34540,7 @@
       </c>
       <c r="P650" s="18">
         <f t="shared" ca="1" si="10"/>
-        <v>2024</v>
+        <v>2013</v>
       </c>
       <c r="Q650" s="2"/>
     </row>
@@ -34592,7 +34592,7 @@
       </c>
       <c r="P651" s="18">
         <f t="shared" ca="1" si="10"/>
-        <v>2018</v>
+        <v>2015</v>
       </c>
       <c r="Q651" s="2"/>
     </row>
@@ -34644,7 +34644,7 @@
       </c>
       <c r="P652" s="18">
         <f t="shared" ca="1" si="10"/>
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="Q652" s="2"/>
     </row>
@@ -34696,7 +34696,7 @@
       </c>
       <c r="P653" s="18">
         <f t="shared" ca="1" si="10"/>
-        <v>2012</v>
+        <v>2015</v>
       </c>
       <c r="Q653" s="2"/>
     </row>
@@ -34748,7 +34748,7 @@
       </c>
       <c r="P654" s="18">
         <f t="shared" ca="1" si="10"/>
-        <v>2015</v>
+        <v>2024</v>
       </c>
       <c r="Q654" s="2"/>
     </row>
@@ -34800,7 +34800,7 @@
       </c>
       <c r="P655" s="18">
         <f t="shared" ca="1" si="10"/>
-        <v>2013</v>
+        <v>2015</v>
       </c>
       <c r="Q655" s="2"/>
     </row>
@@ -34852,7 +34852,7 @@
       </c>
       <c r="P656" s="18">
         <f t="shared" ca="1" si="10"/>
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="Q656" s="2"/>
     </row>
@@ -34904,7 +34904,7 @@
       </c>
       <c r="P657" s="18">
         <f t="shared" ca="1" si="10"/>
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="Q657" s="2"/>
     </row>
@@ -34956,7 +34956,7 @@
       </c>
       <c r="P658" s="18">
         <f t="shared" ca="1" si="10"/>
-        <v>2017</v>
+        <v>2012</v>
       </c>
       <c r="Q658" s="2"/>
     </row>
@@ -35008,7 +35008,7 @@
       </c>
       <c r="P659" s="18">
         <f t="shared" ca="1" si="10"/>
-        <v>2022</v>
+        <v>2019</v>
       </c>
       <c r="Q659" s="2"/>
     </row>
@@ -35060,7 +35060,7 @@
       </c>
       <c r="P660" s="18">
         <f t="shared" ca="1" si="10"/>
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="Q660" s="2"/>
     </row>
@@ -35112,7 +35112,7 @@
       </c>
       <c r="P661" s="18">
         <f t="shared" ca="1" si="10"/>
-        <v>2023</v>
+        <v>2013</v>
       </c>
       <c r="Q661" s="2"/>
     </row>
@@ -35164,7 +35164,7 @@
       </c>
       <c r="P662" s="18">
         <f t="shared" ca="1" si="10"/>
-        <v>2017</v>
+        <v>2024</v>
       </c>
       <c r="Q662" s="2"/>
     </row>
@@ -35216,7 +35216,7 @@
       </c>
       <c r="P663" s="18">
         <f t="shared" ca="1" si="10"/>
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="Q663" s="2"/>
     </row>
@@ -35320,7 +35320,7 @@
       </c>
       <c r="P665" s="18">
         <f t="shared" ca="1" si="10"/>
-        <v>2019</v>
+        <v>2024</v>
       </c>
       <c r="Q665" s="2"/>
     </row>
@@ -35372,7 +35372,7 @@
       </c>
       <c r="P666" s="18">
         <f t="shared" ca="1" si="10"/>
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="Q666" s="2"/>
     </row>
@@ -35424,7 +35424,7 @@
       </c>
       <c r="P667" s="18">
         <f t="shared" ca="1" si="10"/>
-        <v>2020</v>
+        <v>2017</v>
       </c>
       <c r="Q667" s="2"/>
     </row>
@@ -35476,7 +35476,7 @@
       </c>
       <c r="P668" s="18">
         <f t="shared" ca="1" si="10"/>
-        <v>2018</v>
+        <v>2023</v>
       </c>
       <c r="Q668" s="2"/>
     </row>
@@ -35528,7 +35528,7 @@
       </c>
       <c r="P669" s="18">
         <f t="shared" ca="1" si="10"/>
-        <v>2015</v>
+        <v>2020</v>
       </c>
       <c r="Q669" s="2"/>
     </row>
@@ -35580,7 +35580,7 @@
       </c>
       <c r="P670" s="18">
         <f t="shared" ca="1" si="10"/>
-        <v>2013</v>
+        <v>2018</v>
       </c>
       <c r="Q670" s="2"/>
     </row>
@@ -35632,7 +35632,7 @@
       </c>
       <c r="P671" s="18">
         <f t="shared" ca="1" si="10"/>
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="Q671" s="2"/>
     </row>
@@ -35736,7 +35736,7 @@
       </c>
       <c r="P673" s="18">
         <f t="shared" ca="1" si="10"/>
-        <v>2013</v>
+        <v>2016</v>
       </c>
       <c r="Q673" s="2"/>
     </row>
@@ -35840,7 +35840,7 @@
       </c>
       <c r="P675" s="18">
         <f t="shared" ca="1" si="10"/>
-        <v>2018</v>
+        <v>2023</v>
       </c>
       <c r="Q675" s="2"/>
     </row>
@@ -35892,7 +35892,7 @@
       </c>
       <c r="P676" s="18">
         <f t="shared" ca="1" si="10"/>
-        <v>2022</v>
+        <v>2013</v>
       </c>
       <c r="Q676" s="2"/>
     </row>
@@ -35944,7 +35944,7 @@
       </c>
       <c r="P677" s="18">
         <f t="shared" ca="1" si="10"/>
-        <v>2017</v>
+        <v>2020</v>
       </c>
       <c r="Q677" s="2"/>
     </row>
@@ -35996,7 +35996,7 @@
       </c>
       <c r="P678" s="18">
         <f t="shared" ca="1" si="10"/>
-        <v>2012</v>
+        <v>2021</v>
       </c>
       <c r="Q678" s="2"/>
     </row>
@@ -36048,7 +36048,7 @@
       </c>
       <c r="P679" s="18">
         <f t="shared" ca="1" si="10"/>
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="Q679" s="2"/>
     </row>
@@ -36100,7 +36100,7 @@
       </c>
       <c r="P680" s="18">
         <f t="shared" ca="1" si="10"/>
-        <v>2017</v>
+        <v>2012</v>
       </c>
       <c r="Q680" s="2"/>
     </row>
@@ -36152,7 +36152,7 @@
       </c>
       <c r="P681" s="18">
         <f t="shared" ca="1" si="10"/>
-        <v>2023</v>
+        <v>2014</v>
       </c>
       <c r="Q681" s="2"/>
     </row>
@@ -36204,7 +36204,7 @@
       </c>
       <c r="P682" s="18">
         <f t="shared" ca="1" si="10"/>
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="Q682" s="2"/>
     </row>
@@ -36256,7 +36256,7 @@
       </c>
       <c r="P683" s="18">
         <f t="shared" ca="1" si="10"/>
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="Q683" s="2"/>
     </row>
@@ -36308,7 +36308,7 @@
       </c>
       <c r="P684" s="18">
         <f t="shared" ca="1" si="10"/>
-        <v>2015</v>
+        <v>2019</v>
       </c>
       <c r="Q684" s="2"/>
     </row>
@@ -36360,7 +36360,7 @@
       </c>
       <c r="P685" s="18">
         <f t="shared" ca="1" si="10"/>
-        <v>2018</v>
+        <v>2022</v>
       </c>
       <c r="Q685" s="2"/>
     </row>
@@ -36412,7 +36412,7 @@
       </c>
       <c r="P686" s="18">
         <f t="shared" ca="1" si="10"/>
-        <v>2015</v>
+        <v>2021</v>
       </c>
       <c r="Q686" s="2"/>
     </row>
@@ -36464,7 +36464,7 @@
       </c>
       <c r="P687" s="18">
         <f t="shared" ca="1" si="10"/>
-        <v>2022</v>
+        <v>2013</v>
       </c>
       <c r="Q687" s="2"/>
     </row>
@@ -36516,7 +36516,7 @@
       </c>
       <c r="P688" s="18">
         <f t="shared" ca="1" si="10"/>
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="Q688" s="2"/>
     </row>
@@ -36568,7 +36568,7 @@
       </c>
       <c r="P689" s="18">
         <f t="shared" ca="1" si="10"/>
-        <v>2015</v>
+        <v>2019</v>
       </c>
       <c r="Q689" s="2"/>
     </row>
@@ -36620,7 +36620,7 @@
       </c>
       <c r="P690" s="18">
         <f t="shared" ca="1" si="10"/>
-        <v>2018</v>
+        <v>2023</v>
       </c>
       <c r="Q690" s="2"/>
     </row>
@@ -36672,7 +36672,7 @@
       </c>
       <c r="P691" s="18">
         <f t="shared" ca="1" si="10"/>
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="Q691" s="2"/>
     </row>
@@ -36724,7 +36724,7 @@
       </c>
       <c r="P692" s="18">
         <f t="shared" ca="1" si="10"/>
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="Q692" s="2"/>
     </row>
@@ -36776,7 +36776,7 @@
       </c>
       <c r="P693" s="18">
         <f t="shared" ca="1" si="10"/>
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="Q693" s="2"/>
     </row>
@@ -36828,7 +36828,7 @@
       </c>
       <c r="P694" s="18">
         <f t="shared" ca="1" si="10"/>
-        <v>2014</v>
+        <v>2024</v>
       </c>
       <c r="Q694" s="2"/>
     </row>
@@ -36880,7 +36880,7 @@
       </c>
       <c r="P695" s="18">
         <f t="shared" ca="1" si="10"/>
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="Q695" s="2"/>
     </row>
@@ -36932,7 +36932,7 @@
       </c>
       <c r="P696" s="18">
         <f t="shared" ca="1" si="10"/>
-        <v>2019</v>
+        <v>2022</v>
       </c>
       <c r="Q696" s="2"/>
     </row>
@@ -36984,7 +36984,7 @@
       </c>
       <c r="P697" s="18">
         <f t="shared" ca="1" si="10"/>
-        <v>2024</v>
+        <v>2014</v>
       </c>
       <c r="Q697" s="2"/>
     </row>
@@ -37036,7 +37036,7 @@
       </c>
       <c r="P698" s="18">
         <f t="shared" ca="1" si="10"/>
-        <v>2024</v>
+        <v>2018</v>
       </c>
       <c r="Q698" s="2"/>
     </row>
@@ -37088,7 +37088,7 @@
       </c>
       <c r="P699" s="18">
         <f t="shared" ca="1" si="10"/>
-        <v>2018</v>
+        <v>2021</v>
       </c>
       <c r="Q699" s="2"/>
     </row>
@@ -37140,7 +37140,7 @@
       </c>
       <c r="P700" s="18">
         <f t="shared" ca="1" si="10"/>
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="Q700" s="2"/>
     </row>
@@ -37192,7 +37192,7 @@
       </c>
       <c r="P701" s="18">
         <f t="shared" ca="1" si="10"/>
-        <v>2014</v>
+        <v>2020</v>
       </c>
       <c r="Q701" s="2"/>
     </row>
